--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -5773,7 +5773,9 @@
       <c r="R50" t="n">
         <v>32</v>
       </c>
-      <c r="S50"/>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
       <c r="T50" t="n">
         <v>106</v>
       </c>
@@ -5833,7 +5835,9 @@
       <c r="R51" t="n">
         <v>32</v>
       </c>
-      <c r="S51"/>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
       <c r="T51" t="n">
         <v>181</v>
       </c>
@@ -5893,7 +5897,9 @@
       <c r="R52" t="n">
         <v>32</v>
       </c>
-      <c r="S52"/>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
       <c r="T52" t="n">
         <v>181</v>
       </c>
@@ -5953,7 +5959,9 @@
       <c r="R53" t="n">
         <v>32</v>
       </c>
-      <c r="S53"/>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
       <c r="T53" t="n">
         <v>106</v>
       </c>
@@ -6013,9 +6021,7 @@
       <c r="R54" t="n">
         <v>44</v>
       </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="S54"/>
       <c r="T54" t="n">
         <v>91</v>
       </c>
@@ -6075,9 +6081,7 @@
       <c r="R55" t="n">
         <v>44</v>
       </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+      <c r="S55"/>
       <c r="T55" t="n">
         <v>91</v>
       </c>
@@ -6137,9 +6141,7 @@
       <c r="R56" t="n">
         <v>30</v>
       </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="S56"/>
       <c r="T56" t="n">
         <v>91</v>
       </c>
@@ -6199,9 +6201,7 @@
       <c r="R57" t="n">
         <v>30</v>
       </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+      <c r="S57"/>
       <c r="T57" t="n">
         <v>91</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>64</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T70" t="n">
         <v>104</v>
@@ -7068,7 +7068,7 @@
         <v>64</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T71" t="n">
         <v>93</v>
@@ -7130,7 +7130,7 @@
         <v>64</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T72" t="n">
         <v>104</v>
@@ -7192,7 +7192,7 @@
         <v>52</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T73" t="n">
         <v>104</v>
@@ -7502,7 +7502,7 @@
         <v>56</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T78" t="n">
         <v>98</v>
@@ -7564,7 +7564,7 @@
         <v>56</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T79" t="n">
         <v>100</v>
@@ -7626,7 +7626,7 @@
         <v>56</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T80" t="n">
         <v>98</v>
@@ -7688,7 +7688,7 @@
         <v>45</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T81" t="n">
         <v>98</v>
@@ -7750,7 +7750,7 @@
         <v>23</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T82" t="n">
         <v>79</v>
@@ -7812,7 +7812,7 @@
         <v>23</v>
       </c>
       <c r="S83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T83" t="n">
         <v>81</v>
@@ -7874,7 +7874,7 @@
         <v>23</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T84" t="n">
         <v>81</v>
@@ -7936,7 +7936,7 @@
         <v>23</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T85" t="n">
         <v>81</v>
@@ -8246,7 +8246,7 @@
         <v>66</v>
       </c>
       <c r="S90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T90" t="n">
         <v>152</v>
@@ -8308,7 +8308,7 @@
         <v>66</v>
       </c>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T91" t="n">
         <v>145</v>
@@ -8370,7 +8370,7 @@
         <v>66</v>
       </c>
       <c r="S92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T92" t="n">
         <v>152</v>
@@ -8432,7 +8432,7 @@
         <v>66</v>
       </c>
       <c r="S93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T93" t="n">
         <v>152</v>
@@ -8738,7 +8738,7 @@
         <v>18</v>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T98" t="n">
         <v>145</v>
@@ -8796,7 +8796,7 @@
         <v>14</v>
       </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T99" t="n">
         <v>145</v>
@@ -8854,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T100" t="n">
         <v>145</v>
@@ -8912,7 +8912,7 @@
         <v>14</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T101" t="n">
         <v>145</v>
@@ -9468,7 +9468,7 @@
         <v>22</v>
       </c>
       <c r="S110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T110" t="n">
         <v>188</v>
@@ -9528,7 +9528,7 @@
         <v>34</v>
       </c>
       <c r="S111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T111" t="n">
         <v>177</v>
@@ -9588,7 +9588,7 @@
         <v>34</v>
       </c>
       <c r="S112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T112" t="n">
         <v>177</v>
@@ -9648,7 +9648,7 @@
         <v>34</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T113" t="n">
         <v>177</v>
@@ -10268,7 +10268,7 @@
         <v>35</v>
       </c>
       <c r="S123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T123" t="n">
         <v>97</v>
@@ -10330,7 +10330,7 @@
         <v>24</v>
       </c>
       <c r="S124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T124" t="n">
         <v>97</v>
@@ -10392,7 +10392,7 @@
         <v>9</v>
       </c>
       <c r="S125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T125" t="n">
         <v>96</v>
@@ -10454,7 +10454,7 @@
         <v>15</v>
       </c>
       <c r="S126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T126" t="n">
         <v>97</v>
@@ -10516,7 +10516,7 @@
         <v>26</v>
       </c>
       <c r="S127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T127" t="n">
         <v>180</v>
@@ -10578,7 +10578,7 @@
         <v>29</v>
       </c>
       <c r="S128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T128" t="n">
         <v>170</v>
@@ -10640,7 +10640,7 @@
         <v>26</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T129" t="n">
         <v>179</v>
@@ -10702,7 +10702,7 @@
         <v>22</v>
       </c>
       <c r="S130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T130" t="n">
         <v>182</v>
@@ -11198,7 +11198,7 @@
         <v>33</v>
       </c>
       <c r="S138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T138" t="n">
         <v>95</v>
@@ -11260,7 +11260,7 @@
         <v>30</v>
       </c>
       <c r="S139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T139" t="n">
         <v>95</v>
@@ -11322,7 +11322,7 @@
         <v>33</v>
       </c>
       <c r="S140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T140" t="n">
         <v>95</v>
@@ -11384,7 +11384,7 @@
         <v>30</v>
       </c>
       <c r="S141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T141" t="n">
         <v>91</v>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -6021,7 +6021,9 @@
       <c r="R54" t="n">
         <v>44</v>
       </c>
-      <c r="S54"/>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
       <c r="T54" t="n">
         <v>91</v>
       </c>
@@ -6081,7 +6083,9 @@
       <c r="R55" t="n">
         <v>44</v>
       </c>
-      <c r="S55"/>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
       <c r="T55" t="n">
         <v>91</v>
       </c>
@@ -6141,7 +6145,9 @@
       <c r="R56" t="n">
         <v>30</v>
       </c>
-      <c r="S56"/>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
       <c r="T56" t="n">
         <v>91</v>
       </c>
@@ -6201,7 +6207,9 @@
       <c r="R57" t="n">
         <v>30</v>
       </c>
-      <c r="S57"/>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
       <c r="T57" t="n">
         <v>91</v>
       </c>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -6022,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T54" t="n">
         <v>91</v>
@@ -6084,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
         <v>91</v>
@@ -6146,7 +6146,7 @@
         <v>30</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
         <v>91</v>
@@ -6208,7 +6208,7 @@
         <v>30</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
         <v>91</v>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -6022,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
         <v>91</v>
@@ -6084,7 +6084,7 @@
         <v>44</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
         <v>91</v>
@@ -6146,7 +6146,7 @@
         <v>30</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
         <v>91</v>
@@ -6208,7 +6208,7 @@
         <v>30</v>
       </c>
       <c r="S57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
         <v>91</v>
@@ -6269,9 +6269,7 @@
       <c r="R58" t="n">
         <v>9</v>
       </c>
-      <c r="S58" t="n">
-        <v>3</v>
-      </c>
+      <c r="S58"/>
       <c r="T58" t="n">
         <v>106</v>
       </c>
@@ -6331,9 +6329,7 @@
       <c r="R59" t="n">
         <v>9</v>
       </c>
-      <c r="S59" t="n">
-        <v>3</v>
-      </c>
+      <c r="S59"/>
       <c r="T59" t="n">
         <v>106</v>
       </c>
@@ -6393,9 +6389,7 @@
       <c r="R60" t="n">
         <v>9</v>
       </c>
-      <c r="S60" t="n">
-        <v>3</v>
-      </c>
+      <c r="S60"/>
       <c r="T60" t="n">
         <v>106</v>
       </c>
@@ -6455,9 +6449,7 @@
       <c r="R61" t="n">
         <v>9</v>
       </c>
-      <c r="S61" t="n">
-        <v>3</v>
-      </c>
+      <c r="S61"/>
       <c r="T61" t="n">
         <v>106</v>
       </c>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -8961,7 +8961,9 @@
       <c r="N102" t="n">
         <v>110</v>
       </c>
-      <c r="O102"/>
+      <c r="O102" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P102" t="n">
         <v>4512</v>
       </c>
@@ -9517,7 +9519,9 @@
       <c r="N111" t="n">
         <v>123</v>
       </c>
-      <c r="O111"/>
+      <c r="O111" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P111" t="n">
         <v>2582</v>
       </c>
@@ -9577,7 +9581,9 @@
       <c r="N112" t="n">
         <v>123</v>
       </c>
-      <c r="O112"/>
+      <c r="O112" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P112" t="n">
         <v>2582</v>
       </c>
@@ -9637,7 +9643,9 @@
       <c r="N113" t="n">
         <v>123</v>
       </c>
-      <c r="O113"/>
+      <c r="O113" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P113" t="n">
         <v>2582</v>
       </c>
@@ -16641,7 +16649,9 @@
       <c r="N226" t="n">
         <v>16</v>
       </c>
-      <c r="O226"/>
+      <c r="O226" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P226" t="n">
         <v>3627</v>
       </c>
@@ -16701,7 +16711,9 @@
       <c r="N227" t="n">
         <v>16</v>
       </c>
-      <c r="O227"/>
+      <c r="O227" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P227" t="n">
         <v>3638</v>
       </c>
@@ -16761,7 +16773,9 @@
       <c r="N228" t="n">
         <v>16</v>
       </c>
-      <c r="O228"/>
+      <c r="O228" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P228" t="n">
         <v>3638</v>
       </c>
@@ -16821,7 +16835,9 @@
       <c r="N229" t="n">
         <v>16</v>
       </c>
-      <c r="O229"/>
+      <c r="O229" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P229" t="n">
         <v>3627</v>
       </c>
@@ -20353,7 +20369,9 @@
       <c r="N286" t="n">
         <v>60</v>
       </c>
-      <c r="O286"/>
+      <c r="O286" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P286" t="n">
         <v>4083</v>
       </c>
@@ -20413,7 +20431,9 @@
       <c r="N287" t="n">
         <v>60</v>
       </c>
-      <c r="O287"/>
+      <c r="O287" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P287" t="n">
         <v>4191</v>
       </c>
@@ -20473,7 +20493,9 @@
       <c r="N288" t="n">
         <v>60</v>
       </c>
-      <c r="O288"/>
+      <c r="O288" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P288" t="n">
         <v>4083</v>
       </c>
@@ -23819,7 +23841,9 @@
       <c r="N342" t="n">
         <v>21</v>
       </c>
-      <c r="O342"/>
+      <c r="O342" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P342" t="n">
         <v>3653</v>
       </c>
@@ -24003,7 +24027,9 @@
       <c r="N345" t="n">
         <v>21</v>
       </c>
-      <c r="O345"/>
+      <c r="O345" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P345" t="n">
         <v>3653</v>
       </c>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -11454,7 +11454,7 @@
         <v>34</v>
       </c>
       <c r="S142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T142" t="n">
         <v>65</v>
@@ -11516,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="S143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T143" t="n">
         <v>65</v>
@@ -11578,7 +11578,7 @@
         <v>34</v>
       </c>
       <c r="S144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T144" t="n">
         <v>65</v>
@@ -11640,7 +11640,7 @@
         <v>34</v>
       </c>
       <c r="S145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T145" t="n">
         <v>65</v>
@@ -14182,7 +14182,7 @@
         <v>56</v>
       </c>
       <c r="S186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T186" t="n">
         <v>92</v>
@@ -14244,7 +14244,7 @@
         <v>46</v>
       </c>
       <c r="S187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T187" t="n">
         <v>93</v>
@@ -14306,7 +14306,7 @@
         <v>46</v>
       </c>
       <c r="S188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T188" t="n">
         <v>93</v>
@@ -14368,7 +14368,7 @@
         <v>59</v>
       </c>
       <c r="S189" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T189" t="n">
         <v>111</v>
@@ -14430,7 +14430,7 @@
         <v>53</v>
       </c>
       <c r="S190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T190" t="n">
         <v>96</v>
@@ -14492,7 +14492,7 @@
         <v>53</v>
       </c>
       <c r="S191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T191" t="n">
         <v>96</v>
@@ -14554,7 +14554,7 @@
         <v>53</v>
       </c>
       <c r="S192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T192" t="n">
         <v>96</v>
@@ -14616,7 +14616,7 @@
         <v>53</v>
       </c>
       <c r="S193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T193" t="n">
         <v>96</v>
@@ -14926,7 +14926,7 @@
         <v>57</v>
       </c>
       <c r="S198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T198" t="n">
         <v>100</v>
@@ -14988,7 +14988,7 @@
         <v>57</v>
       </c>
       <c r="S199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T199" t="n">
         <v>100</v>
@@ -15050,7 +15050,7 @@
         <v>57</v>
       </c>
       <c r="S200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T200" t="n">
         <v>100</v>
@@ -15112,7 +15112,7 @@
         <v>57</v>
       </c>
       <c r="S201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T201" t="n">
         <v>100</v>
@@ -19390,7 +19390,7 @@
         <v>59</v>
       </c>
       <c r="S270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T270" t="n">
         <v>104</v>
@@ -19452,7 +19452,7 @@
         <v>55</v>
       </c>
       <c r="S271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T271" t="n">
         <v>141</v>
@@ -19514,7 +19514,7 @@
         <v>59</v>
       </c>
       <c r="S272" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T272" t="n">
         <v>104</v>
@@ -19576,7 +19576,7 @@
         <v>59</v>
       </c>
       <c r="S273" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T273" t="n">
         <v>104</v>
@@ -20878,7 +20878,7 @@
         <v>26</v>
       </c>
       <c r="S294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T294" t="n">
         <v>78</v>
@@ -20940,7 +20940,7 @@
         <v>26</v>
       </c>
       <c r="S295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T295" t="n">
         <v>78</v>
@@ -21002,7 +21002,7 @@
         <v>26</v>
       </c>
       <c r="S296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T296" t="n">
         <v>78</v>
@@ -21064,7 +21064,7 @@
         <v>16</v>
       </c>
       <c r="S297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T297" t="n">
         <v>81</v>
@@ -21126,7 +21126,7 @@
         <v>19</v>
       </c>
       <c r="S298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T298" t="n">
         <v>83</v>
@@ -21188,7 +21188,7 @@
         <v>14</v>
       </c>
       <c r="S299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T299" t="n">
         <v>79</v>
@@ -21250,7 +21250,7 @@
         <v>19</v>
       </c>
       <c r="S300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T300" t="n">
         <v>83</v>
@@ -21312,7 +21312,7 @@
         <v>19</v>
       </c>
       <c r="S301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T301" t="n">
         <v>83</v>
@@ -21374,7 +21374,7 @@
         <v>40</v>
       </c>
       <c r="S302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T302" t="n">
         <v>89</v>
@@ -21436,7 +21436,7 @@
         <v>40</v>
       </c>
       <c r="S303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T303" t="n">
         <v>89</v>
@@ -21498,7 +21498,7 @@
         <v>40</v>
       </c>
       <c r="S304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T304" t="n">
         <v>89</v>
@@ -21560,7 +21560,7 @@
         <v>40</v>
       </c>
       <c r="S305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T305" t="n">
         <v>89</v>
@@ -21870,7 +21870,7 @@
         <v>61</v>
       </c>
       <c r="S310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T310" t="n">
         <v>92</v>
@@ -21932,7 +21932,7 @@
         <v>61</v>
       </c>
       <c r="S311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T311" t="n">
         <v>92</v>
@@ -21994,7 +21994,7 @@
         <v>61</v>
       </c>
       <c r="S312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T312" t="n">
         <v>92</v>
@@ -22056,7 +22056,7 @@
         <v>61</v>
       </c>
       <c r="S313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T313" t="n">
         <v>92</v>
@@ -22862,7 +22862,7 @@
         <v>29</v>
       </c>
       <c r="S326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T326" t="n">
         <v>88</v>
@@ -22924,7 +22924,7 @@
         <v>29</v>
       </c>
       <c r="S327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T327" t="n">
         <v>88</v>
@@ -22986,7 +22986,7 @@
         <v>29</v>
       </c>
       <c r="S328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T328" t="n">
         <v>88</v>
@@ -23048,7 +23048,7 @@
         <v>31</v>
       </c>
       <c r="S329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T329" t="n">
         <v>91</v>
@@ -23606,7 +23606,7 @@
         <v>41</v>
       </c>
       <c r="S338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T338" t="n">
         <v>82</v>
@@ -23668,7 +23668,7 @@
         <v>41</v>
       </c>
       <c r="S339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T339" t="n">
         <v>82</v>
@@ -23730,7 +23730,7 @@
         <v>41</v>
       </c>
       <c r="S340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T340" t="n">
         <v>82</v>
@@ -23792,7 +23792,7 @@
         <v>37</v>
       </c>
       <c r="S341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T341" t="n">
         <v>80</v>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -2786,7 +2786,7 @@
         <v>91</v>
       </c>
       <c r="O2" t="n">
-        <v>165.57922</v>
+        <v>14.42078</v>
       </c>
       <c r="P2" t="n">
         <v>5210</v>
@@ -2848,7 +2848,7 @@
         <v>91</v>
       </c>
       <c r="O3" t="n">
-        <v>165.57922</v>
+        <v>14.42078</v>
       </c>
       <c r="P3" t="n">
         <v>5210</v>
@@ -2910,7 +2910,7 @@
         <v>91</v>
       </c>
       <c r="O4" t="n">
-        <v>165.57922</v>
+        <v>14.42078</v>
       </c>
       <c r="P4" t="n">
         <v>5210</v>
@@ -2972,7 +2972,7 @@
         <v>91</v>
       </c>
       <c r="O5" t="n">
-        <v>165.57922</v>
+        <v>14.42078</v>
       </c>
       <c r="P5" t="n">
         <v>5210</v>
@@ -3034,7 +3034,7 @@
         <v>61</v>
       </c>
       <c r="O6" t="n">
-        <v>87.87891</v>
+        <v>92.12109</v>
       </c>
       <c r="P6" t="n">
         <v>3622</v>
@@ -3096,7 +3096,7 @@
         <v>61</v>
       </c>
       <c r="O7" t="n">
-        <v>87.87891</v>
+        <v>92.12109</v>
       </c>
       <c r="P7" t="n">
         <v>3622</v>
@@ -3158,7 +3158,7 @@
         <v>61</v>
       </c>
       <c r="O8" t="n">
-        <v>87.87891</v>
+        <v>92.12109</v>
       </c>
       <c r="P8" t="n">
         <v>3622</v>
@@ -3220,7 +3220,7 @@
         <v>61</v>
       </c>
       <c r="O9" t="n">
-        <v>87.87891</v>
+        <v>92.12109</v>
       </c>
       <c r="P9" t="n">
         <v>3622</v>
@@ -3282,7 +3282,7 @@
         <v>150</v>
       </c>
       <c r="O10" t="n">
-        <v>344.0546</v>
+        <v>164.0546</v>
       </c>
       <c r="P10" t="n">
         <v>2776</v>
@@ -3344,7 +3344,7 @@
         <v>150</v>
       </c>
       <c r="O11" t="n">
-        <v>344.0546</v>
+        <v>164.0546</v>
       </c>
       <c r="P11" t="n">
         <v>2776</v>
@@ -3406,7 +3406,7 @@
         <v>150</v>
       </c>
       <c r="O12" t="n">
-        <v>344.0546</v>
+        <v>164.0546</v>
       </c>
       <c r="P12" t="n">
         <v>2776</v>
@@ -3468,7 +3468,7 @@
         <v>150</v>
       </c>
       <c r="O13" t="n">
-        <v>344.0546</v>
+        <v>164.0546</v>
       </c>
       <c r="P13" t="n">
         <v>2776</v>
@@ -3530,7 +3530,7 @@
         <v>229</v>
       </c>
       <c r="O14" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P14" t="n">
         <v>3095</v>
@@ -3592,7 +3592,7 @@
         <v>234</v>
       </c>
       <c r="O15" t="n">
-        <v>300.96375</v>
+        <v>120.96375</v>
       </c>
       <c r="P15" t="n">
         <v>3895</v>
@@ -3654,7 +3654,7 @@
         <v>233</v>
       </c>
       <c r="O16" t="n">
-        <v>294.44397</v>
+        <v>114.44397</v>
       </c>
       <c r="P16" t="n">
         <v>3712</v>
@@ -3716,7 +3716,7 @@
         <v>229</v>
       </c>
       <c r="O17" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P17" t="n">
         <v>3095</v>
@@ -3778,7 +3778,7 @@
         <v>152</v>
       </c>
       <c r="O18" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>4120</v>
@@ -3840,7 +3840,7 @@
         <v>154</v>
       </c>
       <c r="O19" t="n">
-        <v>194.03624</v>
+        <v>14.03624</v>
       </c>
       <c r="P19" t="n">
         <v>3686</v>
@@ -3902,7 +3902,7 @@
         <v>154</v>
       </c>
       <c r="O20" t="n">
-        <v>194.03624</v>
+        <v>14.03624</v>
       </c>
       <c r="P20" t="n">
         <v>3686</v>
@@ -3964,7 +3964,7 @@
         <v>152</v>
       </c>
       <c r="O21" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>4120</v>
@@ -4026,7 +4026,7 @@
         <v>55</v>
       </c>
       <c r="O22" t="n">
-        <v>322.59464</v>
+        <v>142.59464</v>
       </c>
       <c r="P22" t="n">
         <v>2634</v>
@@ -4088,7 +4088,7 @@
         <v>53</v>
       </c>
       <c r="O23" t="n">
-        <v>324.46231</v>
+        <v>144.46231</v>
       </c>
       <c r="P23" t="n">
         <v>2449</v>
@@ -4150,7 +4150,7 @@
         <v>55</v>
       </c>
       <c r="O24" t="n">
-        <v>322.59464</v>
+        <v>142.59464</v>
       </c>
       <c r="P24" t="n">
         <v>2634</v>
@@ -4212,7 +4212,7 @@
         <v>52</v>
       </c>
       <c r="O25" t="n">
-        <v>321.34018</v>
+        <v>141.34018</v>
       </c>
       <c r="P25" t="n">
         <v>2705</v>
@@ -4274,7 +4274,7 @@
         <v>117</v>
       </c>
       <c r="O26" t="n">
-        <v>105.64225</v>
+        <v>74.35775</v>
       </c>
       <c r="P26" t="n">
         <v>3578</v>
@@ -4336,7 +4336,7 @@
         <v>110</v>
       </c>
       <c r="O27" t="n">
-        <v>96.34019</v>
+        <v>83.65981</v>
       </c>
       <c r="P27" t="n">
         <v>4019</v>
@@ -4398,7 +4398,7 @@
         <v>110</v>
       </c>
       <c r="O28" t="n">
-        <v>96.34019</v>
+        <v>83.65981</v>
       </c>
       <c r="P28" t="n">
         <v>4019</v>
@@ -4460,7 +4460,7 @@
         <v>117</v>
       </c>
       <c r="O29" t="n">
-        <v>105.64225</v>
+        <v>74.35775</v>
       </c>
       <c r="P29" t="n">
         <v>3578</v>
@@ -4522,7 +4522,7 @@
         <v>20</v>
       </c>
       <c r="O30" t="n">
-        <v>324.86581</v>
+        <v>144.86581</v>
       </c>
       <c r="P30" t="n">
         <v>2613</v>
@@ -4584,7 +4584,7 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>341.56506</v>
+        <v>161.56506</v>
       </c>
       <c r="P31" t="n">
         <v>2567</v>
@@ -4646,7 +4646,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>325.61966</v>
+        <v>145.61966</v>
       </c>
       <c r="P32" t="n">
         <v>2594</v>
@@ -4708,7 +4708,7 @@
         <v>20</v>
       </c>
       <c r="O33" t="n">
-        <v>324.86581</v>
+        <v>144.86581</v>
       </c>
       <c r="P33" t="n">
         <v>2613</v>
@@ -4770,7 +4770,7 @@
         <v>126</v>
       </c>
       <c r="O34" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P34" t="n">
         <v>4258</v>
@@ -4832,7 +4832,7 @@
         <v>126</v>
       </c>
       <c r="O35" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P35" t="n">
         <v>4258</v>
@@ -4894,7 +4894,7 @@
         <v>126</v>
       </c>
       <c r="O36" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P36" t="n">
         <v>4258</v>
@@ -4956,7 +4956,7 @@
         <v>126</v>
       </c>
       <c r="O37" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P37" t="n">
         <v>4258</v>
@@ -5018,7 +5018,7 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>165.96376</v>
+        <v>14.03624</v>
       </c>
       <c r="P38" t="n">
         <v>3000</v>
@@ -5080,7 +5080,7 @@
         <v>19</v>
       </c>
       <c r="O39" t="n">
-        <v>165.96376</v>
+        <v>14.03624</v>
       </c>
       <c r="P39" t="n">
         <v>3000</v>
@@ -5142,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="O40" t="n">
-        <v>165.96376</v>
+        <v>14.03624</v>
       </c>
       <c r="P40" t="n">
         <v>3000</v>
@@ -5204,7 +5204,7 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>165.96376</v>
+        <v>14.03624</v>
       </c>
       <c r="P41" t="n">
         <v>3000</v>
@@ -5266,7 +5266,7 @@
         <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>237.20047</v>
+        <v>57.20047</v>
       </c>
       <c r="P42" t="n">
         <v>4641</v>
@@ -5328,7 +5328,7 @@
         <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>237.20047</v>
+        <v>57.20047</v>
       </c>
       <c r="P43" t="n">
         <v>4641</v>
@@ -5390,7 +5390,7 @@
         <v>8</v>
       </c>
       <c r="O44" t="n">
-        <v>237.20047</v>
+        <v>57.20047</v>
       </c>
       <c r="P44" t="n">
         <v>4641</v>
@@ -5452,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="O45" t="n">
-        <v>237.20047</v>
+        <v>57.20047</v>
       </c>
       <c r="P45" t="n">
         <v>4641</v>
@@ -5514,7 +5514,7 @@
         <v>30</v>
       </c>
       <c r="O46" t="n">
-        <v>93.01279</v>
+        <v>86.98721</v>
       </c>
       <c r="P46" t="n">
         <v>3466</v>
@@ -5576,7 +5576,7 @@
         <v>23</v>
       </c>
       <c r="O47" t="n">
-        <v>119.74488</v>
+        <v>60.25512</v>
       </c>
       <c r="P47" t="n">
         <v>3355</v>
@@ -5638,7 +5638,7 @@
         <v>23</v>
       </c>
       <c r="O48" t="n">
-        <v>119.74488</v>
+        <v>60.25512</v>
       </c>
       <c r="P48" t="n">
         <v>3355</v>
@@ -5700,7 +5700,7 @@
         <v>23</v>
       </c>
       <c r="O49" t="n">
-        <v>119.74488</v>
+        <v>60.25512</v>
       </c>
       <c r="P49" t="n">
         <v>3355</v>
@@ -5762,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="O50" t="n">
-        <v>326.30994</v>
+        <v>146.30994</v>
       </c>
       <c r="P50" t="n">
         <v>3424</v>
@@ -5824,7 +5824,7 @@
         <v>25</v>
       </c>
       <c r="O51" t="n">
-        <v>326.30994</v>
+        <v>146.30994</v>
       </c>
       <c r="P51" t="n">
         <v>3424</v>
@@ -5886,7 +5886,7 @@
         <v>25</v>
       </c>
       <c r="O52" t="n">
-        <v>326.30994</v>
+        <v>146.30994</v>
       </c>
       <c r="P52" t="n">
         <v>3424</v>
@@ -5948,7 +5948,7 @@
         <v>25</v>
       </c>
       <c r="O53" t="n">
-        <v>326.30994</v>
+        <v>146.30994</v>
       </c>
       <c r="P53" t="n">
         <v>3424</v>
@@ -6010,7 +6010,7 @@
         <v>93</v>
       </c>
       <c r="O54" t="n">
-        <v>164.05461</v>
+        <v>15.94539</v>
       </c>
       <c r="P54" t="n">
         <v>5437</v>
@@ -6072,7 +6072,7 @@
         <v>93</v>
       </c>
       <c r="O55" t="n">
-        <v>164.05461</v>
+        <v>15.94539</v>
       </c>
       <c r="P55" t="n">
         <v>5437</v>
@@ -6134,7 +6134,7 @@
         <v>93</v>
       </c>
       <c r="O56" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>5335</v>
@@ -6196,7 +6196,7 @@
         <v>93</v>
       </c>
       <c r="O57" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>5335</v>
@@ -6258,7 +6258,7 @@
         <v>82</v>
       </c>
       <c r="O58" t="n">
-        <v>169.69516</v>
+        <v>10.30484</v>
       </c>
       <c r="P58" t="n">
         <v>4892</v>
@@ -6318,7 +6318,7 @@
         <v>82</v>
       </c>
       <c r="O59" t="n">
-        <v>169.69516</v>
+        <v>10.30484</v>
       </c>
       <c r="P59" t="n">
         <v>4892</v>
@@ -6378,7 +6378,7 @@
         <v>82</v>
       </c>
       <c r="O60" t="n">
-        <v>169.69516</v>
+        <v>10.30484</v>
       </c>
       <c r="P60" t="n">
         <v>4892</v>
@@ -6438,7 +6438,7 @@
         <v>82</v>
       </c>
       <c r="O61" t="n">
-        <v>169.69516</v>
+        <v>10.30484</v>
       </c>
       <c r="P61" t="n">
         <v>4892</v>
@@ -6498,7 +6498,7 @@
         <v>100</v>
       </c>
       <c r="O62" t="n">
-        <v>63.43495</v>
+        <v>116.56505</v>
       </c>
       <c r="P62" t="n">
         <v>2558</v>
@@ -6560,7 +6560,7 @@
         <v>100</v>
       </c>
       <c r="O63" t="n">
-        <v>63.43495</v>
+        <v>116.56505</v>
       </c>
       <c r="P63" t="n">
         <v>2558</v>
@@ -6622,7 +6622,7 @@
         <v>101</v>
       </c>
       <c r="O64" t="n">
-        <v>81.8699</v>
+        <v>98.1301</v>
       </c>
       <c r="P64" t="n">
         <v>2558</v>
@@ -6684,7 +6684,7 @@
         <v>101</v>
       </c>
       <c r="O65" t="n">
-        <v>81.8699</v>
+        <v>98.1301</v>
       </c>
       <c r="P65" t="n">
         <v>2558</v>
@@ -6746,7 +6746,7 @@
         <v>103</v>
       </c>
       <c r="O66" t="n">
-        <v>157.9321</v>
+        <v>22.0679</v>
       </c>
       <c r="P66" t="n">
         <v>3340</v>
@@ -6808,7 +6808,7 @@
         <v>103</v>
       </c>
       <c r="O67" t="n">
-        <v>157.9321</v>
+        <v>22.0679</v>
       </c>
       <c r="P67" t="n">
         <v>3340</v>
@@ -6870,7 +6870,7 @@
         <v>103</v>
       </c>
       <c r="O68" t="n">
-        <v>157.9321</v>
+        <v>22.0679</v>
       </c>
       <c r="P68" t="n">
         <v>3340</v>
@@ -6932,7 +6932,7 @@
         <v>103</v>
       </c>
       <c r="O69" t="n">
-        <v>157.9321</v>
+        <v>22.0679</v>
       </c>
       <c r="P69" t="n">
         <v>3340</v>
@@ -6994,7 +6994,7 @@
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>236.7683</v>
+        <v>56.7683</v>
       </c>
       <c r="P70" t="n">
         <v>5137</v>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
       <c r="O71" t="n">
-        <v>236.7683</v>
+        <v>56.7683</v>
       </c>
       <c r="P71" t="n">
         <v>5137</v>
@@ -7118,7 +7118,7 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>236.7683</v>
+        <v>56.7683</v>
       </c>
       <c r="P72" t="n">
         <v>5137</v>
@@ -7180,7 +7180,7 @@
         <v>20</v>
       </c>
       <c r="O73" t="n">
-        <v>239.74356</v>
+        <v>59.74356</v>
       </c>
       <c r="P73" t="n">
         <v>3627</v>
@@ -7242,7 +7242,7 @@
         <v>120</v>
       </c>
       <c r="O74" t="n">
-        <v>185.71059</v>
+        <v>5.71059</v>
       </c>
       <c r="P74" t="n">
         <v>4949</v>
@@ -7304,7 +7304,7 @@
         <v>121</v>
       </c>
       <c r="O75" t="n">
-        <v>161.56505</v>
+        <v>18.43495</v>
       </c>
       <c r="P75" t="n">
         <v>4942</v>
@@ -7366,7 +7366,7 @@
         <v>122</v>
       </c>
       <c r="O76" t="n">
-        <v>184.39871</v>
+        <v>4.39870999999999</v>
       </c>
       <c r="P76" t="n">
         <v>4949</v>
@@ -7428,7 +7428,7 @@
         <v>120</v>
       </c>
       <c r="O77" t="n">
-        <v>212.00539</v>
+        <v>32.00539</v>
       </c>
       <c r="P77" t="n">
         <v>4633</v>
@@ -7490,7 +7490,7 @@
         <v>181</v>
       </c>
       <c r="O78" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P78" t="n">
         <v>3271</v>
@@ -7552,7 +7552,7 @@
         <v>181</v>
       </c>
       <c r="O79" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P79" t="n">
         <v>3271</v>
@@ -7614,7 +7614,7 @@
         <v>181</v>
       </c>
       <c r="O80" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P80" t="n">
         <v>3271</v>
@@ -7676,7 +7676,7 @@
         <v>176</v>
       </c>
       <c r="O81" t="n">
-        <v>341.56506</v>
+        <v>161.56506</v>
       </c>
       <c r="P81" t="n">
         <v>3340</v>
@@ -7738,7 +7738,7 @@
         <v>108</v>
       </c>
       <c r="O82" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P82" t="n">
         <v>4509</v>
@@ -7800,7 +7800,7 @@
         <v>108</v>
       </c>
       <c r="O83" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P83" t="n">
         <v>4509</v>
@@ -7862,7 +7862,7 @@
         <v>108</v>
       </c>
       <c r="O84" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P84" t="n">
         <v>4509</v>
@@ -7924,7 +7924,7 @@
         <v>108</v>
       </c>
       <c r="O85" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P85" t="n">
         <v>4509</v>
@@ -7986,7 +7986,7 @@
         <v>6</v>
       </c>
       <c r="O86" t="n">
-        <v>18.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="P86" t="n">
         <v>3094</v>
@@ -8048,7 +8048,7 @@
         <v>6</v>
       </c>
       <c r="O87" t="n">
-        <v>18.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="P87" t="n">
         <v>3094</v>
@@ -8110,7 +8110,7 @@
         <v>6</v>
       </c>
       <c r="O88" t="n">
-        <v>18.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="P88" t="n">
         <v>3094</v>
@@ -8172,7 +8172,7 @@
         <v>6</v>
       </c>
       <c r="O89" t="n">
-        <v>18.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="P89" t="n">
         <v>3094</v>
@@ -8234,7 +8234,7 @@
         <v>16</v>
       </c>
       <c r="O90" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="P90" t="n">
         <v>4822</v>
@@ -8296,7 +8296,7 @@
         <v>16</v>
       </c>
       <c r="O91" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="P91" t="n">
         <v>4822</v>
@@ -8358,7 +8358,7 @@
         <v>16</v>
       </c>
       <c r="O92" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="P92" t="n">
         <v>4822</v>
@@ -8420,7 +8420,7 @@
         <v>16</v>
       </c>
       <c r="O93" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="P93" t="n">
         <v>4822</v>
@@ -8482,7 +8482,7 @@
         <v>33</v>
       </c>
       <c r="O94" t="n">
-        <v>203.19859</v>
+        <v>23.19859</v>
       </c>
       <c r="P94" t="n">
         <v>2624</v>
@@ -8544,7 +8544,7 @@
         <v>33</v>
       </c>
       <c r="O95" t="n">
-        <v>203.19859</v>
+        <v>23.19859</v>
       </c>
       <c r="P95" t="n">
         <v>2624</v>
@@ -8606,7 +8606,7 @@
         <v>33</v>
       </c>
       <c r="O96" t="n">
-        <v>203.19859</v>
+        <v>23.19859</v>
       </c>
       <c r="P96" t="n">
         <v>2624</v>
@@ -8668,7 +8668,7 @@
         <v>33</v>
       </c>
       <c r="O97" t="n">
-        <v>153.43495</v>
+        <v>26.56505</v>
       </c>
       <c r="P97" t="n">
         <v>2408</v>
@@ -8726,7 +8726,7 @@
         <v>172</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P98" t="n">
         <v>3435</v>
@@ -8784,7 +8784,7 @@
         <v>173</v>
       </c>
       <c r="O99" t="n">
-        <v>348.69006</v>
+        <v>168.69006</v>
       </c>
       <c r="P99" t="n">
         <v>3321</v>
@@ -8842,7 +8842,7 @@
         <v>173</v>
       </c>
       <c r="O100" t="n">
-        <v>348.69006</v>
+        <v>168.69006</v>
       </c>
       <c r="P100" t="n">
         <v>3321</v>
@@ -8900,7 +8900,7 @@
         <v>173</v>
       </c>
       <c r="O101" t="n">
-        <v>348.69006</v>
+        <v>168.69006</v>
       </c>
       <c r="P101" t="n">
         <v>3321</v>
@@ -8962,7 +8962,7 @@
         <v>110</v>
       </c>
       <c r="O102" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P102" t="n">
         <v>4512</v>
@@ -9024,7 +9024,7 @@
         <v>110</v>
       </c>
       <c r="O103" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P103" t="n">
         <v>3845</v>
@@ -9086,7 +9086,7 @@
         <v>110</v>
       </c>
       <c r="O104" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P104" t="n">
         <v>3845</v>
@@ -9148,7 +9148,7 @@
         <v>110</v>
       </c>
       <c r="O105" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P105" t="n">
         <v>3845</v>
@@ -9210,7 +9210,7 @@
         <v>84</v>
       </c>
       <c r="O106" t="n">
-        <v>356.18591</v>
+        <v>176.18591</v>
       </c>
       <c r="P106" t="n">
         <v>4358</v>
@@ -9272,7 +9272,7 @@
         <v>84</v>
       </c>
       <c r="O107" t="n">
-        <v>356.18591</v>
+        <v>176.18591</v>
       </c>
       <c r="P107" t="n">
         <v>4358</v>
@@ -9334,7 +9334,7 @@
         <v>84</v>
       </c>
       <c r="O108" t="n">
-        <v>356.18591</v>
+        <v>176.18591</v>
       </c>
       <c r="P108" t="n">
         <v>4358</v>
@@ -9396,7 +9396,7 @@
         <v>84</v>
       </c>
       <c r="O109" t="n">
-        <v>356.18591</v>
+        <v>176.18591</v>
       </c>
       <c r="P109" t="n">
         <v>4358</v>
@@ -9458,7 +9458,7 @@
         <v>123</v>
       </c>
       <c r="O110" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P110" t="n">
         <v>2566</v>
@@ -9520,7 +9520,7 @@
         <v>123</v>
       </c>
       <c r="O111" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P111" t="n">
         <v>2582</v>
@@ -9582,7 +9582,7 @@
         <v>123</v>
       </c>
       <c r="O112" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P112" t="n">
         <v>2582</v>
@@ -9644,7 +9644,7 @@
         <v>123</v>
       </c>
       <c r="O113" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P113" t="n">
         <v>2582</v>
@@ -9706,7 +9706,7 @@
         <v>18</v>
       </c>
       <c r="O114" t="n">
-        <v>132.51045</v>
+        <v>47.48955</v>
       </c>
       <c r="P114" t="n">
         <v>4782</v>
@@ -9768,7 +9768,7 @@
         <v>18</v>
       </c>
       <c r="O115" t="n">
-        <v>132.51045</v>
+        <v>47.48955</v>
       </c>
       <c r="P115" t="n">
         <v>4782</v>
@@ -9830,7 +9830,7 @@
         <v>18</v>
       </c>
       <c r="O116" t="n">
-        <v>132.51045</v>
+        <v>47.48955</v>
       </c>
       <c r="P116" t="n">
         <v>4782</v>
@@ -9892,7 +9892,7 @@
         <v>18</v>
       </c>
       <c r="O117" t="n">
-        <v>132.51045</v>
+        <v>47.48955</v>
       </c>
       <c r="P117" t="n">
         <v>4782</v>
@@ -9954,7 +9954,7 @@
         <v>96</v>
       </c>
       <c r="O118" t="n">
-        <v>196.18921</v>
+        <v>16.18921</v>
       </c>
       <c r="P118" t="n">
         <v>2699</v>
@@ -10016,7 +10016,7 @@
         <v>96</v>
       </c>
       <c r="O119" t="n">
-        <v>196.18921</v>
+        <v>16.18921</v>
       </c>
       <c r="P119" t="n">
         <v>2699</v>
@@ -10078,7 +10078,7 @@
         <v>96</v>
       </c>
       <c r="O120" t="n">
-        <v>196.18921</v>
+        <v>16.18921</v>
       </c>
       <c r="P120" t="n">
         <v>2699</v>
@@ -10140,7 +10140,7 @@
         <v>96</v>
       </c>
       <c r="O121" t="n">
-        <v>196.18921</v>
+        <v>16.18921</v>
       </c>
       <c r="P121" t="n">
         <v>2699</v>
@@ -10202,7 +10202,7 @@
         <v>28</v>
       </c>
       <c r="O122" t="n">
-        <v>209.05461</v>
+        <v>29.05461</v>
       </c>
       <c r="P122" t="n">
         <v>2719</v>
@@ -10264,7 +10264,7 @@
         <v>105</v>
       </c>
       <c r="O123" t="n">
-        <v>181.84761</v>
+        <v>1.84761</v>
       </c>
       <c r="P123" t="n">
         <v>4309</v>
@@ -10326,7 +10326,7 @@
         <v>105</v>
       </c>
       <c r="O124" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P124" t="n">
         <v>4849</v>
@@ -10388,7 +10388,7 @@
         <v>109</v>
       </c>
       <c r="O125" t="n">
-        <v>181.97493</v>
+        <v>1.97493</v>
       </c>
       <c r="P125" t="n">
         <v>4577</v>
@@ -10450,7 +10450,7 @@
         <v>109</v>
       </c>
       <c r="O126" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
         <v>4197</v>
@@ -10512,7 +10512,7 @@
         <v>94</v>
       </c>
       <c r="O127" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P127" t="n">
         <v>3599</v>
@@ -10574,7 +10574,7 @@
         <v>94</v>
       </c>
       <c r="O128" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P128" t="n">
         <v>3736</v>
@@ -10636,7 +10636,7 @@
         <v>94</v>
       </c>
       <c r="O129" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P129" t="n">
         <v>3651</v>
@@ -10698,7 +10698,7 @@
         <v>95</v>
       </c>
       <c r="O130" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P130" t="n">
         <v>3651</v>
@@ -10760,7 +10760,7 @@
         <v>29</v>
       </c>
       <c r="O131" t="n">
-        <v>213.69006</v>
+        <v>33.69006</v>
       </c>
       <c r="P131" t="n">
         <v>2953</v>
@@ -10822,7 +10822,7 @@
         <v>31</v>
       </c>
       <c r="O132" t="n">
-        <v>213.69006</v>
+        <v>33.69006</v>
       </c>
       <c r="P132" t="n">
         <v>2788</v>
@@ -10884,7 +10884,7 @@
         <v>29</v>
       </c>
       <c r="O133" t="n">
-        <v>217.87498</v>
+        <v>37.87498</v>
       </c>
       <c r="P133" t="n">
         <v>2788</v>
@@ -10946,7 +10946,7 @@
         <v>88</v>
       </c>
       <c r="O134" t="n">
-        <v>281.30994</v>
+        <v>101.30994</v>
       </c>
       <c r="P134" t="n">
         <v>3115</v>
@@ -11008,7 +11008,7 @@
         <v>88</v>
       </c>
       <c r="O135" t="n">
-        <v>281.30994</v>
+        <v>101.30994</v>
       </c>
       <c r="P135" t="n">
         <v>3115</v>
@@ -11070,7 +11070,7 @@
         <v>88</v>
       </c>
       <c r="O136" t="n">
-        <v>281.30994</v>
+        <v>101.30994</v>
       </c>
       <c r="P136" t="n">
         <v>3115</v>
@@ -11132,7 +11132,7 @@
         <v>88</v>
       </c>
       <c r="O137" t="n">
-        <v>281.30994</v>
+        <v>101.30994</v>
       </c>
       <c r="P137" t="n">
         <v>3115</v>
@@ -11194,7 +11194,7 @@
         <v>62</v>
       </c>
       <c r="O138" t="n">
-        <v>222.27368</v>
+        <v>42.27368</v>
       </c>
       <c r="P138" t="n">
         <v>4381</v>
@@ -11256,7 +11256,7 @@
         <v>57</v>
       </c>
       <c r="O139" t="n">
-        <v>222.51045</v>
+        <v>42.51045</v>
       </c>
       <c r="P139" t="n">
         <v>4468</v>
@@ -11318,7 +11318,7 @@
         <v>62</v>
       </c>
       <c r="O140" t="n">
-        <v>222.27368</v>
+        <v>42.27368</v>
       </c>
       <c r="P140" t="n">
         <v>4381</v>
@@ -11380,7 +11380,7 @@
         <v>57</v>
       </c>
       <c r="O141" t="n">
-        <v>222.51045</v>
+        <v>42.51045</v>
       </c>
       <c r="P141" t="n">
         <v>4468</v>
@@ -11442,7 +11442,7 @@
         <v>219</v>
       </c>
       <c r="O142" t="n">
-        <v>355.9144</v>
+        <v>175.9144</v>
       </c>
       <c r="P142" t="n">
         <v>2792</v>
@@ -11504,7 +11504,7 @@
         <v>219</v>
       </c>
       <c r="O143" t="n">
-        <v>355.9144</v>
+        <v>175.9144</v>
       </c>
       <c r="P143" t="n">
         <v>2792</v>
@@ -11566,7 +11566,7 @@
         <v>219</v>
       </c>
       <c r="O144" t="n">
-        <v>355.9144</v>
+        <v>175.9144</v>
       </c>
       <c r="P144" t="n">
         <v>2792</v>
@@ -11628,7 +11628,7 @@
         <v>219</v>
       </c>
       <c r="O145" t="n">
-        <v>355.9144</v>
+        <v>175.9144</v>
       </c>
       <c r="P145" t="n">
         <v>2792</v>
@@ -11690,7 +11690,7 @@
         <v>84</v>
       </c>
       <c r="O146" t="n">
-        <v>26.56505</v>
+        <v>153.43495</v>
       </c>
       <c r="P146" t="n">
         <v>3845</v>
@@ -11752,7 +11752,7 @@
         <v>84</v>
       </c>
       <c r="O147" t="n">
-        <v>26.56505</v>
+        <v>153.43495</v>
       </c>
       <c r="P147" t="n">
         <v>3845</v>
@@ -11814,7 +11814,7 @@
         <v>84</v>
       </c>
       <c r="O148" t="n">
-        <v>26.56505</v>
+        <v>153.43495</v>
       </c>
       <c r="P148" t="n">
         <v>3845</v>
@@ -11876,7 +11876,7 @@
         <v>84</v>
       </c>
       <c r="O149" t="n">
-        <v>26.56505</v>
+        <v>153.43495</v>
       </c>
       <c r="P149" t="n">
         <v>3845</v>
@@ -11938,7 +11938,7 @@
         <v>71</v>
       </c>
       <c r="O150" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P150" t="n">
         <v>3324</v>
@@ -12000,7 +12000,7 @@
         <v>71</v>
       </c>
       <c r="O151" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P151" t="n">
         <v>3324</v>
@@ -12062,7 +12062,7 @@
         <v>71</v>
       </c>
       <c r="O152" t="n">
-        <v>71.56505</v>
+        <v>108.43495</v>
       </c>
       <c r="P152" t="n">
         <v>3124</v>
@@ -12124,7 +12124,7 @@
         <v>71</v>
       </c>
       <c r="O153" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P153" t="n">
         <v>3324</v>
@@ -12186,7 +12186,7 @@
         <v>68</v>
       </c>
       <c r="O154" t="n">
-        <v>254.74489</v>
+        <v>74.74489</v>
       </c>
       <c r="P154" t="n">
         <v>3832</v>
@@ -12248,7 +12248,7 @@
         <v>81</v>
       </c>
       <c r="O155" t="n">
-        <v>261.60709</v>
+        <v>81.60709</v>
       </c>
       <c r="P155" t="n">
         <v>4374</v>
@@ -12310,7 +12310,7 @@
         <v>68</v>
       </c>
       <c r="O156" t="n">
-        <v>254.74489</v>
+        <v>74.74489</v>
       </c>
       <c r="P156" t="n">
         <v>3832</v>
@@ -12372,7 +12372,7 @@
         <v>68</v>
       </c>
       <c r="O157" t="n">
-        <v>254.74489</v>
+        <v>74.74489</v>
       </c>
       <c r="P157" t="n">
         <v>3832</v>
@@ -12434,7 +12434,7 @@
         <v>35</v>
       </c>
       <c r="O158" t="n">
-        <v>32.47119</v>
+        <v>147.52881</v>
       </c>
       <c r="P158" t="n">
         <v>3465</v>
@@ -12496,7 +12496,7 @@
         <v>35</v>
       </c>
       <c r="O159" t="n">
-        <v>32.47119</v>
+        <v>147.52881</v>
       </c>
       <c r="P159" t="n">
         <v>3465</v>
@@ -12558,7 +12558,7 @@
         <v>37</v>
       </c>
       <c r="O160" t="n">
-        <v>33.69007</v>
+        <v>146.30993</v>
       </c>
       <c r="P160" t="n">
         <v>3743</v>
@@ -12620,7 +12620,7 @@
         <v>37</v>
       </c>
       <c r="O161" t="n">
-        <v>33.69007</v>
+        <v>146.30993</v>
       </c>
       <c r="P161" t="n">
         <v>3743</v>
@@ -12682,7 +12682,7 @@
         <v>44</v>
       </c>
       <c r="O162" t="n">
-        <v>334.33481</v>
+        <v>154.33481</v>
       </c>
       <c r="P162" t="n">
         <v>639</v>
@@ -12744,7 +12744,7 @@
         <v>44</v>
       </c>
       <c r="O163" t="n">
-        <v>334.33481</v>
+        <v>154.33481</v>
       </c>
       <c r="P163" t="n">
         <v>639</v>
@@ -12806,7 +12806,7 @@
         <v>44</v>
       </c>
       <c r="O164" t="n">
-        <v>334.33481</v>
+        <v>154.33481</v>
       </c>
       <c r="P164" t="n">
         <v>639</v>
@@ -12868,7 +12868,7 @@
         <v>44</v>
       </c>
       <c r="O165" t="n">
-        <v>334.33481</v>
+        <v>154.33481</v>
       </c>
       <c r="P165" t="n">
         <v>639</v>
@@ -12930,7 +12930,7 @@
         <v>103</v>
       </c>
       <c r="O166" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P166" t="n">
         <v>3827</v>
@@ -12992,7 +12992,7 @@
         <v>103</v>
       </c>
       <c r="O167" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P167" t="n">
         <v>3827</v>
@@ -13054,7 +13054,7 @@
         <v>103</v>
       </c>
       <c r="O168" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P168" t="n">
         <v>3827</v>
@@ -13116,7 +13116,7 @@
         <v>103</v>
       </c>
       <c r="O169" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P169" t="n">
         <v>3827</v>
@@ -13178,7 +13178,7 @@
         <v>174</v>
       </c>
       <c r="O170" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P170" t="n">
         <v>3283</v>
@@ -13240,7 +13240,7 @@
         <v>174</v>
       </c>
       <c r="O171" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P171" t="n">
         <v>3283</v>
@@ -13302,7 +13302,7 @@
         <v>174</v>
       </c>
       <c r="O172" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P172" t="n">
         <v>3283</v>
@@ -13364,7 +13364,7 @@
         <v>169</v>
       </c>
       <c r="O173" t="n">
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="P173" t="n">
         <v>2952</v>
@@ -13426,7 +13426,7 @@
         <v>94</v>
       </c>
       <c r="O174" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P174" t="n">
         <v>4886</v>
@@ -13488,7 +13488,7 @@
         <v>93</v>
       </c>
       <c r="O175" t="n">
-        <v>53.1301</v>
+        <v>126.8699</v>
       </c>
       <c r="P175" t="n">
         <v>3832</v>
@@ -13550,7 +13550,7 @@
         <v>93</v>
       </c>
       <c r="O176" t="n">
-        <v>53.1301</v>
+        <v>126.8699</v>
       </c>
       <c r="P176" t="n">
         <v>3832</v>
@@ -13612,7 +13612,7 @@
         <v>94</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P177" t="n">
         <v>4886</v>
@@ -13674,7 +13674,7 @@
         <v>3</v>
       </c>
       <c r="O178" t="n">
-        <v>210.96376</v>
+        <v>30.96376</v>
       </c>
       <c r="P178" t="n">
         <v>3828</v>
@@ -13736,7 +13736,7 @@
         <v>6</v>
       </c>
       <c r="O179" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P179" t="n">
         <v>3845</v>
@@ -13798,7 +13798,7 @@
         <v>6</v>
       </c>
       <c r="O180" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P180" t="n">
         <v>3845</v>
@@ -13860,7 +13860,7 @@
         <v>6</v>
       </c>
       <c r="O181" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P181" t="n">
         <v>3845</v>
@@ -13922,7 +13922,7 @@
         <v>34</v>
       </c>
       <c r="O182" t="n">
-        <v>206.56505</v>
+        <v>26.56505</v>
       </c>
       <c r="P182" t="n">
         <v>4805</v>
@@ -13984,7 +13984,7 @@
         <v>34</v>
       </c>
       <c r="O183" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P183" t="n">
         <v>4248</v>
@@ -14046,7 +14046,7 @@
         <v>34</v>
       </c>
       <c r="O184" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P184" t="n">
         <v>4248</v>
@@ -14108,7 +14108,7 @@
         <v>34</v>
       </c>
       <c r="O185" t="n">
-        <v>206.56505</v>
+        <v>26.56505</v>
       </c>
       <c r="P185" t="n">
         <v>4805</v>
@@ -14170,7 +14170,7 @@
         <v>226</v>
       </c>
       <c r="O186" t="n">
-        <v>318.0665</v>
+        <v>138.0665</v>
       </c>
       <c r="P186" t="n">
         <v>2015</v>
@@ -14232,7 +14232,7 @@
         <v>234</v>
       </c>
       <c r="O187" t="n">
-        <v>313.26428</v>
+        <v>133.26428</v>
       </c>
       <c r="P187" t="n">
         <v>2636</v>
@@ -14294,7 +14294,7 @@
         <v>234</v>
       </c>
       <c r="O188" t="n">
-        <v>313.26428</v>
+        <v>133.26428</v>
       </c>
       <c r="P188" t="n">
         <v>2636</v>
@@ -14356,7 +14356,7 @@
         <v>219</v>
       </c>
       <c r="O189" t="n">
-        <v>317.33731</v>
+        <v>137.33731</v>
       </c>
       <c r="P189" t="n">
         <v>2797</v>
@@ -14418,7 +14418,7 @@
         <v>41</v>
       </c>
       <c r="O190" t="n">
-        <v>188.74615</v>
+        <v>8.74615</v>
       </c>
       <c r="P190" t="n">
         <v>4056</v>
@@ -14480,7 +14480,7 @@
         <v>41</v>
       </c>
       <c r="O191" t="n">
-        <v>188.74615</v>
+        <v>8.74615</v>
       </c>
       <c r="P191" t="n">
         <v>4056</v>
@@ -14542,7 +14542,7 @@
         <v>41</v>
       </c>
       <c r="O192" t="n">
-        <v>188.74615</v>
+        <v>8.74615</v>
       </c>
       <c r="P192" t="n">
         <v>4056</v>
@@ -14604,7 +14604,7 @@
         <v>41</v>
       </c>
       <c r="O193" t="n">
-        <v>188.74615</v>
+        <v>8.74615</v>
       </c>
       <c r="P193" t="n">
         <v>4056</v>
@@ -14666,7 +14666,7 @@
         <v>444</v>
       </c>
       <c r="O194" t="n">
-        <v>106.26021</v>
+        <v>73.73979</v>
       </c>
       <c r="P194" t="n">
         <v>3699</v>
@@ -14728,7 +14728,7 @@
         <v>444</v>
       </c>
       <c r="O195" t="n">
-        <v>106.26021</v>
+        <v>73.73979</v>
       </c>
       <c r="P195" t="n">
         <v>3699</v>
@@ -14790,7 +14790,7 @@
         <v>444</v>
       </c>
       <c r="O196" t="n">
-        <v>106.26021</v>
+        <v>73.73979</v>
       </c>
       <c r="P196" t="n">
         <v>3699</v>
@@ -14852,7 +14852,7 @@
         <v>455</v>
       </c>
       <c r="O197" t="n">
-        <v>101.30993</v>
+        <v>78.69007</v>
       </c>
       <c r="P197" t="n">
         <v>3699</v>
@@ -14914,7 +14914,7 @@
         <v>44</v>
       </c>
       <c r="O198" t="n">
-        <v>1.4688</v>
+        <v>178.5312</v>
       </c>
       <c r="P198" t="n">
         <v>3327</v>
@@ -14976,7 +14976,7 @@
         <v>44</v>
       </c>
       <c r="O199" t="n">
-        <v>1.4688</v>
+        <v>178.5312</v>
       </c>
       <c r="P199" t="n">
         <v>3327</v>
@@ -15038,7 +15038,7 @@
         <v>44</v>
       </c>
       <c r="O200" t="n">
-        <v>1.4688</v>
+        <v>178.5312</v>
       </c>
       <c r="P200" t="n">
         <v>3327</v>
@@ -15100,7 +15100,7 @@
         <v>44</v>
       </c>
       <c r="O201" t="n">
-        <v>1.4688</v>
+        <v>178.5312</v>
       </c>
       <c r="P201" t="n">
         <v>3327</v>
@@ -15162,7 +15162,7 @@
         <v>110</v>
       </c>
       <c r="O202" t="n">
-        <v>255.96376</v>
+        <v>75.96376</v>
       </c>
       <c r="P202" t="n">
         <v>4535</v>
@@ -15224,7 +15224,7 @@
         <v>110</v>
       </c>
       <c r="O203" t="n">
-        <v>255.96376</v>
+        <v>75.96376</v>
       </c>
       <c r="P203" t="n">
         <v>4535</v>
@@ -15286,7 +15286,7 @@
         <v>110</v>
       </c>
       <c r="O204" t="n">
-        <v>255.96376</v>
+        <v>75.96376</v>
       </c>
       <c r="P204" t="n">
         <v>4535</v>
@@ -15348,7 +15348,7 @@
         <v>110</v>
       </c>
       <c r="O205" t="n">
-        <v>255.96376</v>
+        <v>75.96376</v>
       </c>
       <c r="P205" t="n">
         <v>4535</v>
@@ -15410,7 +15410,7 @@
         <v>149</v>
       </c>
       <c r="O206" t="n">
-        <v>243.43495</v>
+        <v>63.43495</v>
       </c>
       <c r="P206" t="n">
         <v>3607</v>
@@ -15472,7 +15472,7 @@
         <v>150</v>
       </c>
       <c r="O207" t="n">
-        <v>247.83365</v>
+        <v>67.83365</v>
       </c>
       <c r="P207" t="n">
         <v>4166</v>
@@ -15534,7 +15534,7 @@
         <v>150</v>
       </c>
       <c r="O208" t="n">
-        <v>247.83365</v>
+        <v>67.83365</v>
       </c>
       <c r="P208" t="n">
         <v>4166</v>
@@ -15596,7 +15596,7 @@
         <v>150</v>
       </c>
       <c r="O209" t="n">
-        <v>247.83365</v>
+        <v>67.83365</v>
       </c>
       <c r="P209" t="n">
         <v>4166</v>
@@ -15658,7 +15658,7 @@
         <v>63</v>
       </c>
       <c r="O210" t="n">
-        <v>210.96376</v>
+        <v>30.96376</v>
       </c>
       <c r="P210" t="n">
         <v>3497</v>
@@ -15720,7 +15720,7 @@
         <v>61</v>
       </c>
       <c r="O211" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P211" t="n">
         <v>3420</v>
@@ -15782,7 +15782,7 @@
         <v>63</v>
       </c>
       <c r="O212" t="n">
-        <v>210.96376</v>
+        <v>30.96376</v>
       </c>
       <c r="P212" t="n">
         <v>3497</v>
@@ -15844,7 +15844,7 @@
         <v>63</v>
       </c>
       <c r="O213" t="n">
-        <v>210.96376</v>
+        <v>30.96376</v>
       </c>
       <c r="P213" t="n">
         <v>3497</v>
@@ -15906,7 +15906,7 @@
         <v>155</v>
       </c>
       <c r="O214" t="n">
-        <v>167.82854</v>
+        <v>12.17146</v>
       </c>
       <c r="P214" t="n">
         <v>5087</v>
@@ -15968,7 +15968,7 @@
         <v>155</v>
       </c>
       <c r="O215" t="n">
-        <v>167.82854</v>
+        <v>12.17146</v>
       </c>
       <c r="P215" t="n">
         <v>5087</v>
@@ -16030,7 +16030,7 @@
         <v>155</v>
       </c>
       <c r="O216" t="n">
-        <v>167.82854</v>
+        <v>12.17146</v>
       </c>
       <c r="P216" t="n">
         <v>5087</v>
@@ -16092,7 +16092,7 @@
         <v>151</v>
       </c>
       <c r="O217" t="n">
-        <v>159.56717</v>
+        <v>20.43283</v>
       </c>
       <c r="P217" t="n">
         <v>5184</v>
@@ -16154,7 +16154,7 @@
         <v>218</v>
       </c>
       <c r="O218" t="n">
-        <v>171.25385</v>
+        <v>8.74615</v>
       </c>
       <c r="P218" t="n">
         <v>6356</v>
@@ -16216,7 +16216,7 @@
         <v>218</v>
       </c>
       <c r="O219" t="n">
-        <v>171.25385</v>
+        <v>8.74615</v>
       </c>
       <c r="P219" t="n">
         <v>6356</v>
@@ -16278,7 +16278,7 @@
         <v>238</v>
       </c>
       <c r="O220" t="n">
-        <v>173.26399</v>
+        <v>6.73600999999999</v>
       </c>
       <c r="P220" t="n">
         <v>6061</v>
@@ -16340,7 +16340,7 @@
         <v>218</v>
       </c>
       <c r="O221" t="n">
-        <v>171.25385</v>
+        <v>8.74615</v>
       </c>
       <c r="P221" t="n">
         <v>6356</v>
@@ -16402,7 +16402,7 @@
         <v>43</v>
       </c>
       <c r="O222" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P222" t="n">
         <v>4133</v>
@@ -16464,7 +16464,7 @@
         <v>43</v>
       </c>
       <c r="O223" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P223" t="n">
         <v>4133</v>
@@ -16526,7 +16526,7 @@
         <v>43</v>
       </c>
       <c r="O224" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P224" t="n">
         <v>4133</v>
@@ -16588,7 +16588,7 @@
         <v>43</v>
       </c>
       <c r="O225" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P225" t="n">
         <v>4133</v>
@@ -16650,7 +16650,7 @@
         <v>16</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P226" t="n">
         <v>3627</v>
@@ -16712,7 +16712,7 @@
         <v>16</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P227" t="n">
         <v>3638</v>
@@ -16774,7 +16774,7 @@
         <v>16</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P228" t="n">
         <v>3638</v>
@@ -16836,7 +16836,7 @@
         <v>16</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P229" t="n">
         <v>3627</v>
@@ -16898,7 +16898,7 @@
         <v>30</v>
       </c>
       <c r="O230" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P230" t="n">
         <v>3006</v>
@@ -16960,7 +16960,7 @@
         <v>30</v>
       </c>
       <c r="O231" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P231" t="n">
         <v>3006</v>
@@ -17022,7 +17022,7 @@
         <v>30</v>
       </c>
       <c r="O232" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P232" t="n">
         <v>3006</v>
@@ -17084,7 +17084,7 @@
         <v>30</v>
       </c>
       <c r="O233" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P233" t="n">
         <v>3006</v>
@@ -17146,7 +17146,7 @@
         <v>120</v>
       </c>
       <c r="O234" t="n">
-        <v>140.71059</v>
+        <v>39.28941</v>
       </c>
       <c r="P234" t="n">
         <v>4636</v>
@@ -17208,7 +17208,7 @@
         <v>120</v>
       </c>
       <c r="O235" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P235" t="n">
         <v>4636</v>
@@ -17270,7 +17270,7 @@
         <v>120</v>
       </c>
       <c r="O236" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P236" t="n">
         <v>4636</v>
@@ -17332,7 +17332,7 @@
         <v>120</v>
       </c>
       <c r="O237" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P237" t="n">
         <v>4636</v>
@@ -17394,7 +17394,7 @@
         <v>16</v>
       </c>
       <c r="O238" t="n">
-        <v>333.43494</v>
+        <v>153.43494</v>
       </c>
       <c r="P238" t="n">
         <v>2155</v>
@@ -17456,7 +17456,7 @@
         <v>16</v>
       </c>
       <c r="O239" t="n">
-        <v>333.43494</v>
+        <v>153.43494</v>
       </c>
       <c r="P239" t="n">
         <v>2155</v>
@@ -17518,7 +17518,7 @@
         <v>16</v>
       </c>
       <c r="O240" t="n">
-        <v>333.43494</v>
+        <v>153.43494</v>
       </c>
       <c r="P240" t="n">
         <v>2155</v>
@@ -17580,7 +17580,7 @@
         <v>16</v>
       </c>
       <c r="O241" t="n">
-        <v>333.43494</v>
+        <v>153.43494</v>
       </c>
       <c r="P241" t="n">
         <v>2155</v>
@@ -17642,7 +17642,7 @@
         <v>242</v>
       </c>
       <c r="O242" t="n">
-        <v>302.27563</v>
+        <v>122.27563</v>
       </c>
       <c r="P242" t="n">
         <v>2331</v>
@@ -17704,7 +17704,7 @@
         <v>242</v>
       </c>
       <c r="O243" t="n">
-        <v>302.27563</v>
+        <v>122.27563</v>
       </c>
       <c r="P243" t="n">
         <v>2331</v>
@@ -17766,7 +17766,7 @@
         <v>242</v>
       </c>
       <c r="O244" t="n">
-        <v>302.27563</v>
+        <v>122.27563</v>
       </c>
       <c r="P244" t="n">
         <v>2331</v>
@@ -17828,7 +17828,7 @@
         <v>242</v>
       </c>
       <c r="O245" t="n">
-        <v>302.27563</v>
+        <v>122.27563</v>
       </c>
       <c r="P245" t="n">
         <v>2331</v>
@@ -17890,7 +17890,7 @@
         <v>377</v>
       </c>
       <c r="O246" t="n">
-        <v>349.69516</v>
+        <v>169.69516</v>
       </c>
       <c r="P246" t="n">
         <v>2305</v>
@@ -17952,7 +17952,7 @@
         <v>378</v>
       </c>
       <c r="O247" t="n">
-        <v>356.98721</v>
+        <v>176.98721</v>
       </c>
       <c r="P247" t="n">
         <v>2305</v>
@@ -18014,7 +18014,7 @@
         <v>375</v>
       </c>
       <c r="O248" t="n">
-        <v>344.74487</v>
+        <v>164.74487</v>
       </c>
       <c r="P248" t="n">
         <v>2192</v>
@@ -18076,7 +18076,7 @@
         <v>375</v>
       </c>
       <c r="O249" t="n">
-        <v>344.74487</v>
+        <v>164.74487</v>
       </c>
       <c r="P249" t="n">
         <v>2192</v>
@@ -18138,7 +18138,7 @@
         <v>239</v>
       </c>
       <c r="O250" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P250" t="n">
         <v>3779</v>
@@ -18200,7 +18200,7 @@
         <v>239</v>
       </c>
       <c r="O251" t="n">
-        <v>108.43495</v>
+        <v>71.56505</v>
       </c>
       <c r="P251" t="n">
         <v>3779</v>
@@ -18262,7 +18262,7 @@
         <v>239</v>
       </c>
       <c r="O252" t="n">
-        <v>98.61565</v>
+        <v>81.38435</v>
       </c>
       <c r="P252" t="n">
         <v>3513</v>
@@ -18324,7 +18324,7 @@
         <v>244</v>
       </c>
       <c r="O253" t="n">
-        <v>157.24902</v>
+        <v>22.75098</v>
       </c>
       <c r="P253" t="n">
         <v>3779</v>
@@ -18386,7 +18386,7 @@
         <v>77</v>
       </c>
       <c r="O254" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P254" t="n">
         <v>3497</v>
@@ -18448,7 +18448,7 @@
         <v>77</v>
       </c>
       <c r="O255" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P255" t="n">
         <v>3497</v>
@@ -18510,7 +18510,7 @@
         <v>77</v>
       </c>
       <c r="O256" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P256" t="n">
         <v>3497</v>
@@ -18572,7 +18572,7 @@
         <v>77</v>
       </c>
       <c r="O257" t="n">
-        <v>337.61987</v>
+        <v>157.61987</v>
       </c>
       <c r="P257" t="n">
         <v>3497</v>
@@ -18634,7 +18634,7 @@
         <v>160</v>
       </c>
       <c r="O258" t="n">
-        <v>234.46233</v>
+        <v>54.46233</v>
       </c>
       <c r="P258" t="n">
         <v>4014</v>
@@ -18696,7 +18696,7 @@
         <v>160</v>
       </c>
       <c r="O259" t="n">
-        <v>234.46233</v>
+        <v>54.46233</v>
       </c>
       <c r="P259" t="n">
         <v>4014</v>
@@ -18758,7 +18758,7 @@
         <v>161</v>
       </c>
       <c r="O260" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P260" t="n">
         <v>3648</v>
@@ -18820,7 +18820,7 @@
         <v>161</v>
       </c>
       <c r="O261" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P261" t="n">
         <v>3648</v>
@@ -18882,7 +18882,7 @@
         <v>87</v>
       </c>
       <c r="O262" t="n">
-        <v>212.00539</v>
+        <v>32.00539</v>
       </c>
       <c r="P262" t="n">
         <v>3266</v>
@@ -18944,7 +18944,7 @@
         <v>87</v>
       </c>
       <c r="O263" t="n">
-        <v>212.00539</v>
+        <v>32.00539</v>
       </c>
       <c r="P263" t="n">
         <v>3266</v>
@@ -19006,7 +19006,7 @@
         <v>87</v>
       </c>
       <c r="O264" t="n">
-        <v>212.00539</v>
+        <v>32.00539</v>
       </c>
       <c r="P264" t="n">
         <v>3266</v>
@@ -19068,7 +19068,7 @@
         <v>87</v>
       </c>
       <c r="O265" t="n">
-        <v>212.00539</v>
+        <v>32.00539</v>
       </c>
       <c r="P265" t="n">
         <v>3266</v>
@@ -19130,7 +19130,7 @@
         <v>76</v>
       </c>
       <c r="O266" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P266" t="n">
         <v>3872</v>
@@ -19192,7 +19192,7 @@
         <v>76</v>
       </c>
       <c r="O267" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P267" t="n">
         <v>3872</v>
@@ -19254,7 +19254,7 @@
         <v>76</v>
       </c>
       <c r="O268" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P268" t="n">
         <v>3872</v>
@@ -19316,7 +19316,7 @@
         <v>76</v>
       </c>
       <c r="O269" t="n">
-        <v>201.80141</v>
+        <v>21.80141</v>
       </c>
       <c r="P269" t="n">
         <v>3872</v>
@@ -19378,7 +19378,7 @@
         <v>23</v>
       </c>
       <c r="O270" t="n">
-        <v>230.71059</v>
+        <v>50.71059</v>
       </c>
       <c r="P270" t="n">
         <v>3977</v>
@@ -19440,7 +19440,7 @@
         <v>29</v>
       </c>
       <c r="O271" t="n">
-        <v>218.65981</v>
+        <v>38.65981</v>
       </c>
       <c r="P271" t="n">
         <v>3939</v>
@@ -19502,7 +19502,7 @@
         <v>23</v>
       </c>
       <c r="O272" t="n">
-        <v>230.71059</v>
+        <v>50.71059</v>
       </c>
       <c r="P272" t="n">
         <v>3977</v>
@@ -19564,7 +19564,7 @@
         <v>23</v>
       </c>
       <c r="O273" t="n">
-        <v>230.71059</v>
+        <v>50.71059</v>
       </c>
       <c r="P273" t="n">
         <v>3977</v>
@@ -19626,7 +19626,7 @@
         <v>36</v>
       </c>
       <c r="O274" t="n">
-        <v>150.64224</v>
+        <v>29.35776</v>
       </c>
       <c r="P274" t="n">
         <v>4545</v>
@@ -19688,7 +19688,7 @@
         <v>36</v>
       </c>
       <c r="O275" t="n">
-        <v>150.64224</v>
+        <v>29.35776</v>
       </c>
       <c r="P275" t="n">
         <v>4545</v>
@@ -19750,7 +19750,7 @@
         <v>36</v>
       </c>
       <c r="O276" t="n">
-        <v>150.64224</v>
+        <v>29.35776</v>
       </c>
       <c r="P276" t="n">
         <v>4545</v>
@@ -19812,7 +19812,7 @@
         <v>40</v>
       </c>
       <c r="O277" t="n">
-        <v>147.80426</v>
+        <v>32.19574</v>
       </c>
       <c r="P277" t="n">
         <v>4769</v>
@@ -19874,7 +19874,7 @@
         <v>57</v>
       </c>
       <c r="O278" t="n">
-        <v>172.34935</v>
+        <v>7.65065000000001</v>
       </c>
       <c r="P278" t="n">
         <v>4280</v>
@@ -19936,7 +19936,7 @@
         <v>57</v>
       </c>
       <c r="O279" t="n">
-        <v>172.34935</v>
+        <v>7.65065000000001</v>
       </c>
       <c r="P279" t="n">
         <v>4280</v>
@@ -19998,7 +19998,7 @@
         <v>57</v>
       </c>
       <c r="O280" t="n">
-        <v>172.34935</v>
+        <v>7.65065000000001</v>
       </c>
       <c r="P280" t="n">
         <v>4280</v>
@@ -20060,7 +20060,7 @@
         <v>57</v>
       </c>
       <c r="O281" t="n">
-        <v>172.34935</v>
+        <v>7.65065000000001</v>
       </c>
       <c r="P281" t="n">
         <v>4280</v>
@@ -20122,7 +20122,7 @@
         <v>120</v>
       </c>
       <c r="O282" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P282" t="n">
         <v>4921</v>
@@ -20184,7 +20184,7 @@
         <v>123</v>
       </c>
       <c r="O283" t="n">
-        <v>248.19859</v>
+        <v>68.19859</v>
       </c>
       <c r="P283" t="n">
         <v>4275</v>
@@ -20246,7 +20246,7 @@
         <v>124</v>
       </c>
       <c r="O284" t="n">
-        <v>263.65982</v>
+        <v>83.65982</v>
       </c>
       <c r="P284" t="n">
         <v>4986</v>
@@ -20308,7 +20308,7 @@
         <v>122</v>
       </c>
       <c r="O285" t="n">
-        <v>240.94539</v>
+        <v>60.94539</v>
       </c>
       <c r="P285" t="n">
         <v>5206</v>
@@ -20370,7 +20370,7 @@
         <v>60</v>
       </c>
       <c r="O286" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P286" t="n">
         <v>4083</v>
@@ -20432,7 +20432,7 @@
         <v>60</v>
       </c>
       <c r="O287" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P287" t="n">
         <v>4191</v>
@@ -20494,7 +20494,7 @@
         <v>60</v>
       </c>
       <c r="O288" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P288" t="n">
         <v>4083</v>
@@ -20556,7 +20556,7 @@
         <v>60</v>
       </c>
       <c r="O289" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P289" t="n">
         <v>4083</v>
@@ -20618,7 +20618,7 @@
         <v>206</v>
       </c>
       <c r="O290" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P290" t="n">
         <v>3671</v>
@@ -20680,7 +20680,7 @@
         <v>206</v>
       </c>
       <c r="O291" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P291" t="n">
         <v>3671</v>
@@ -20742,7 +20742,7 @@
         <v>206</v>
       </c>
       <c r="O292" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P292" t="n">
         <v>3671</v>
@@ -20804,7 +20804,7 @@
         <v>208</v>
       </c>
       <c r="O293" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="P293" t="n">
         <v>3982</v>
@@ -20866,7 +20866,7 @@
         <v>163</v>
       </c>
       <c r="O294" t="n">
-        <v>243.43495</v>
+        <v>63.43495</v>
       </c>
       <c r="P294" t="n">
         <v>4066</v>
@@ -20928,7 +20928,7 @@
         <v>163</v>
       </c>
       <c r="O295" t="n">
-        <v>243.43495</v>
+        <v>63.43495</v>
       </c>
       <c r="P295" t="n">
         <v>4066</v>
@@ -20990,7 +20990,7 @@
         <v>163</v>
       </c>
       <c r="O296" t="n">
-        <v>243.43495</v>
+        <v>63.43495</v>
       </c>
       <c r="P296" t="n">
         <v>4066</v>
@@ -21052,7 +21052,7 @@
         <v>163</v>
       </c>
       <c r="O297" t="n">
-        <v>296.56506</v>
+        <v>116.56506</v>
       </c>
       <c r="P297" t="n">
         <v>3556</v>
@@ -21114,7 +21114,7 @@
         <v>171</v>
       </c>
       <c r="O298" t="n">
-        <v>23.19859</v>
+        <v>156.80141</v>
       </c>
       <c r="P298" t="n">
         <v>4274</v>
@@ -21176,7 +21176,7 @@
         <v>170</v>
       </c>
       <c r="O299" t="n">
-        <v>18.43495</v>
+        <v>161.56505</v>
       </c>
       <c r="P299" t="n">
         <v>4268</v>
@@ -21238,7 +21238,7 @@
         <v>171</v>
       </c>
       <c r="O300" t="n">
-        <v>23.19859</v>
+        <v>156.80141</v>
       </c>
       <c r="P300" t="n">
         <v>4274</v>
@@ -21300,7 +21300,7 @@
         <v>171</v>
       </c>
       <c r="O301" t="n">
-        <v>23.19859</v>
+        <v>156.80141</v>
       </c>
       <c r="P301" t="n">
         <v>4274</v>
@@ -21362,7 +21362,7 @@
         <v>106</v>
       </c>
       <c r="O302" t="n">
-        <v>75.06858</v>
+        <v>104.93142</v>
       </c>
       <c r="P302" t="n">
         <v>4336</v>
@@ -21424,7 +21424,7 @@
         <v>106</v>
       </c>
       <c r="O303" t="n">
-        <v>75.06858</v>
+        <v>104.93142</v>
       </c>
       <c r="P303" t="n">
         <v>4336</v>
@@ -21486,7 +21486,7 @@
         <v>106</v>
       </c>
       <c r="O304" t="n">
-        <v>75.06858</v>
+        <v>104.93142</v>
       </c>
       <c r="P304" t="n">
         <v>4336</v>
@@ -21548,7 +21548,7 @@
         <v>106</v>
       </c>
       <c r="O305" t="n">
-        <v>75.06858</v>
+        <v>104.93142</v>
       </c>
       <c r="P305" t="n">
         <v>4336</v>
@@ -21610,7 +21610,7 @@
         <v>80</v>
       </c>
       <c r="O306" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P306" t="n">
         <v>3811</v>
@@ -21672,7 +21672,7 @@
         <v>81</v>
       </c>
       <c r="O307" t="n">
-        <v>243.43495</v>
+        <v>63.43495</v>
       </c>
       <c r="P307" t="n">
         <v>4045</v>
@@ -21734,7 +21734,7 @@
         <v>80</v>
       </c>
       <c r="O308" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P308" t="n">
         <v>3811</v>
@@ -21796,7 +21796,7 @@
         <v>80</v>
       </c>
       <c r="O309" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P309" t="n">
         <v>3811</v>
@@ -21858,7 +21858,7 @@
         <v>81</v>
       </c>
       <c r="O310" t="n">
-        <v>249.77515</v>
+        <v>69.77515</v>
       </c>
       <c r="P310" t="n">
         <v>3634</v>
@@ -21920,7 +21920,7 @@
         <v>81</v>
       </c>
       <c r="O311" t="n">
-        <v>249.77515</v>
+        <v>69.77515</v>
       </c>
       <c r="P311" t="n">
         <v>3634</v>
@@ -21982,7 +21982,7 @@
         <v>81</v>
       </c>
       <c r="O312" t="n">
-        <v>249.77515</v>
+        <v>69.77515</v>
       </c>
       <c r="P312" t="n">
         <v>3634</v>
@@ -22044,7 +22044,7 @@
         <v>81</v>
       </c>
       <c r="O313" t="n">
-        <v>249.77515</v>
+        <v>69.77515</v>
       </c>
       <c r="P313" t="n">
         <v>3634</v>
@@ -22106,7 +22106,7 @@
         <v>186</v>
       </c>
       <c r="O314" t="n">
-        <v>284.74356</v>
+        <v>104.74356</v>
       </c>
       <c r="P314" t="n">
         <v>2919</v>
@@ -22168,7 +22168,7 @@
         <v>186</v>
       </c>
       <c r="O315" t="n">
-        <v>284.74356</v>
+        <v>104.74356</v>
       </c>
       <c r="P315" t="n">
         <v>2919</v>
@@ -22230,7 +22230,7 @@
         <v>186</v>
       </c>
       <c r="O316" t="n">
-        <v>284.74356</v>
+        <v>104.74356</v>
       </c>
       <c r="P316" t="n">
         <v>2919</v>
@@ -22292,7 +22292,7 @@
         <v>181</v>
       </c>
       <c r="O317" t="n">
-        <v>255.96376</v>
+        <v>75.96376</v>
       </c>
       <c r="P317" t="n">
         <v>2919</v>
@@ -22354,7 +22354,7 @@
         <v>215</v>
       </c>
       <c r="O318" t="n">
-        <v>251.56505</v>
+        <v>71.56505</v>
       </c>
       <c r="P318" t="n">
         <v>3314</v>
@@ -22416,7 +22416,7 @@
         <v>215</v>
       </c>
       <c r="O319" t="n">
-        <v>251.56505</v>
+        <v>71.56505</v>
       </c>
       <c r="P319" t="n">
         <v>3314</v>
@@ -22478,7 +22478,7 @@
         <v>215</v>
       </c>
       <c r="O320" t="n">
-        <v>251.56505</v>
+        <v>71.56505</v>
       </c>
       <c r="P320" t="n">
         <v>3314</v>
@@ -22540,7 +22540,7 @@
         <v>215</v>
       </c>
       <c r="O321" t="n">
-        <v>243.43495</v>
+        <v>63.43495</v>
       </c>
       <c r="P321" t="n">
         <v>3314</v>
@@ -22602,7 +22602,7 @@
         <v>22</v>
       </c>
       <c r="O322" t="n">
-        <v>208.61046</v>
+        <v>28.61046</v>
       </c>
       <c r="P322" t="n">
         <v>3142</v>
@@ -22664,7 +22664,7 @@
         <v>22</v>
       </c>
       <c r="O323" t="n">
-        <v>208.61046</v>
+        <v>28.61046</v>
       </c>
       <c r="P323" t="n">
         <v>3142</v>
@@ -22726,7 +22726,7 @@
         <v>22</v>
       </c>
       <c r="O324" t="n">
-        <v>208.61046</v>
+        <v>28.61046</v>
       </c>
       <c r="P324" t="n">
         <v>3142</v>
@@ -22788,7 +22788,7 @@
         <v>22</v>
       </c>
       <c r="O325" t="n">
-        <v>208.61046</v>
+        <v>28.61046</v>
       </c>
       <c r="P325" t="n">
         <v>3142</v>
@@ -22850,7 +22850,7 @@
         <v>113</v>
       </c>
       <c r="O326" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P326" t="n">
         <v>4536</v>
@@ -22912,7 +22912,7 @@
         <v>113</v>
       </c>
       <c r="O327" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P327" t="n">
         <v>4536</v>
@@ -22974,7 +22974,7 @@
         <v>113</v>
       </c>
       <c r="O328" t="n">
-        <v>198.43495</v>
+        <v>18.43495</v>
       </c>
       <c r="P328" t="n">
         <v>4536</v>
@@ -23036,7 +23036,7 @@
         <v>114</v>
       </c>
       <c r="O329" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="P329" t="n">
         <v>4517</v>
@@ -23098,7 +23098,7 @@
         <v>84</v>
       </c>
       <c r="O330" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P330" t="n">
         <v>4018</v>
@@ -23160,7 +23160,7 @@
         <v>86</v>
       </c>
       <c r="O331" t="n">
-        <v>213.69006</v>
+        <v>33.69006</v>
       </c>
       <c r="P331" t="n">
         <v>4018</v>
@@ -23222,7 +23222,7 @@
         <v>86</v>
       </c>
       <c r="O332" t="n">
-        <v>213.69006</v>
+        <v>33.69006</v>
       </c>
       <c r="P332" t="n">
         <v>4018</v>
@@ -23284,7 +23284,7 @@
         <v>84</v>
       </c>
       <c r="O333" t="n">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="P333" t="n">
         <v>4018</v>
@@ -23346,7 +23346,7 @@
         <v>106</v>
       </c>
       <c r="O334" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P334" t="n">
         <v>4051</v>
@@ -23408,7 +23408,7 @@
         <v>106</v>
       </c>
       <c r="O335" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P335" t="n">
         <v>4051</v>
@@ -23470,7 +23470,7 @@
         <v>106</v>
       </c>
       <c r="O336" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P336" t="n">
         <v>4051</v>
@@ -23532,7 +23532,7 @@
         <v>106</v>
       </c>
       <c r="O337" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P337" t="n">
         <v>4051</v>
@@ -23594,7 +23594,7 @@
         <v>106</v>
       </c>
       <c r="O338" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P338" t="n">
         <v>4089</v>
@@ -23656,7 +23656,7 @@
         <v>106</v>
       </c>
       <c r="O339" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P339" t="n">
         <v>4089</v>
@@ -23718,7 +23718,7 @@
         <v>106</v>
       </c>
       <c r="O340" t="n">
-        <v>244.98311</v>
+        <v>64.98311</v>
       </c>
       <c r="P340" t="n">
         <v>4089</v>
@@ -23780,7 +23780,7 @@
         <v>104</v>
       </c>
       <c r="O341" t="n">
-        <v>302.47119</v>
+        <v>122.47119</v>
       </c>
       <c r="P341" t="n">
         <v>4216</v>
@@ -23842,7 +23842,7 @@
         <v>21</v>
       </c>
       <c r="O342" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P342" t="n">
         <v>3653</v>
@@ -23904,7 +23904,7 @@
         <v>21</v>
       </c>
       <c r="O343" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P343" t="n">
         <v>3653</v>
@@ -23966,7 +23966,7 @@
         <v>21</v>
       </c>
       <c r="O344" t="n">
-        <v>288.43494</v>
+        <v>108.43494</v>
       </c>
       <c r="P344" t="n">
         <v>3653</v>
@@ -24028,7 +24028,7 @@
         <v>21</v>
       </c>
       <c r="O345" t="n">
-        <v>0.1</v>
+        <v>179.9</v>
       </c>
       <c r="P345" t="n">
         <v>3653</v>

--- a/final carbon data/env_subplots_final.xlsx
+++ b/final carbon data/env_subplots_final.xlsx
@@ -11454,7 +11454,7 @@
         <v>34</v>
       </c>
       <c r="S142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T142" t="n">
         <v>65</v>
@@ -11516,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="S143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T143" t="n">
         <v>65</v>
@@ -11578,7 +11578,7 @@
         <v>34</v>
       </c>
       <c r="S144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T144" t="n">
         <v>65</v>
@@ -11640,7 +11640,7 @@
         <v>34</v>
       </c>
       <c r="S145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T145" t="n">
         <v>65</v>
@@ -11702,7 +11702,7 @@
         <v>32</v>
       </c>
       <c r="S146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T146" t="n">
         <v>79</v>
@@ -11764,7 +11764,7 @@
         <v>32</v>
       </c>
       <c r="S147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T147" t="n">
         <v>79</v>
@@ -11826,7 +11826,7 @@
         <v>32</v>
       </c>
       <c r="S148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T148" t="n">
         <v>79</v>
@@ -11888,7 +11888,7 @@
         <v>32</v>
       </c>
       <c r="S149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T149" t="n">
         <v>79</v>
@@ -11950,7 +11950,7 @@
         <v>37</v>
       </c>
       <c r="S150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
         <v>86</v>
@@ -12012,7 +12012,7 @@
         <v>37</v>
       </c>
       <c r="S151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T151" t="n">
         <v>86</v>
@@ -12074,7 +12074,7 @@
         <v>37</v>
       </c>
       <c r="S152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T152" t="n">
         <v>82</v>
@@ -12136,7 +12136,7 @@
         <v>37</v>
       </c>
       <c r="S153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T153" t="n">
         <v>86</v>
@@ -12198,7 +12198,7 @@
         <v>55</v>
       </c>
       <c r="S154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T154" t="n">
         <v>147</v>
@@ -12260,7 +12260,7 @@
         <v>52</v>
       </c>
       <c r="S155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T155" t="n">
         <v>146</v>
@@ -12322,7 +12322,7 @@
         <v>55</v>
       </c>
       <c r="S156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T156" t="n">
         <v>147</v>
@@ -12384,7 +12384,7 @@
         <v>55</v>
       </c>
       <c r="S157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T157" t="n">
         <v>147</v>
@@ -12446,7 +12446,7 @@
         <v>29</v>
       </c>
       <c r="S158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T158" t="n">
         <v>83</v>
@@ -12508,7 +12508,7 @@
         <v>29</v>
       </c>
       <c r="S159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T159" t="n">
         <v>83</v>
@@ -12570,7 +12570,7 @@
         <v>37</v>
       </c>
       <c r="S160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T160" t="n">
         <v>84</v>
@@ -12632,7 +12632,7 @@
         <v>37</v>
       </c>
       <c r="S161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T161" t="n">
         <v>84</v>
@@ -12694,7 +12694,7 @@
         <v>63</v>
       </c>
       <c r="S162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T162" t="n">
         <v>84</v>
@@ -12756,7 +12756,7 @@
         <v>63</v>
       </c>
       <c r="S163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T163" t="n">
         <v>84</v>
@@ -12818,7 +12818,7 @@
         <v>63</v>
       </c>
       <c r="S164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T164" t="n">
         <v>84</v>
@@ -12880,7 +12880,7 @@
         <v>63</v>
       </c>
       <c r="S165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T165" t="n">
         <v>84</v>
@@ -12942,7 +12942,7 @@
         <v>23</v>
       </c>
       <c r="S166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T166" t="n">
         <v>71</v>
@@ -13004,7 +13004,7 @@
         <v>23</v>
       </c>
       <c r="S167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T167" t="n">
         <v>71</v>
@@ -13066,7 +13066,7 @@
         <v>23</v>
       </c>
       <c r="S168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T168" t="n">
         <v>71</v>
@@ -13128,7 +13128,7 @@
         <v>23</v>
       </c>
       <c r="S169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T169" t="n">
         <v>71</v>
@@ -13190,7 +13190,7 @@
         <v>64</v>
       </c>
       <c r="S170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T170" t="n">
         <v>107.61799</v>
@@ -13252,7 +13252,7 @@
         <v>64</v>
       </c>
       <c r="S171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T171" t="n">
         <v>107.61799</v>
@@ -13314,7 +13314,7 @@
         <v>64</v>
       </c>
       <c r="S172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T172" t="n">
         <v>107.61799</v>
@@ -13376,7 +13376,7 @@
         <v>57</v>
       </c>
       <c r="S173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T173" t="n">
         <v>102.14339</v>
@@ -13438,7 +13438,7 @@
         <v>35</v>
       </c>
       <c r="S174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T174" t="n">
         <v>71</v>
@@ -13500,7 +13500,7 @@
         <v>23</v>
       </c>
       <c r="S175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T175" t="n">
         <v>71</v>
@@ -13562,7 +13562,7 @@
         <v>23</v>
       </c>
       <c r="S176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T176" t="n">
         <v>71</v>
@@ -13624,7 +13624,7 @@
         <v>35</v>
       </c>
       <c r="S177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T177" t="n">
         <v>71</v>
@@ -13686,7 +13686,7 @@
         <v>55</v>
       </c>
       <c r="S178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T178" t="n">
         <v>91</v>
@@ -13748,7 +13748,7 @@
         <v>52</v>
       </c>
       <c r="S179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T179" t="n">
         <v>105</v>
@@ -13810,7 +13810,7 @@
         <v>52</v>
       </c>
       <c r="S180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T180" t="n">
         <v>105</v>
@@ -13872,7 +13872,7 @@
         <v>52</v>
       </c>
       <c r="S181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T181" t="n">
         <v>105</v>
@@ -13934,7 +13934,7 @@
         <v>42</v>
       </c>
       <c r="S182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T182" t="n">
         <v>92</v>
@@ -13996,7 +13996,7 @@
         <v>44</v>
       </c>
       <c r="S183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T183" t="n">
         <v>99</v>
@@ -14058,7 +14058,7 @@
         <v>44</v>
       </c>
       <c r="S184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T184" t="n">
         <v>99</v>
@@ -14120,7 +14120,7 @@
         <v>42</v>
       </c>
       <c r="S185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T185" t="n">
         <v>92</v>
@@ -14182,7 +14182,7 @@
         <v>56</v>
       </c>
       <c r="S186" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T186" t="n">
         <v>92</v>
@@ -14244,7 +14244,7 @@
         <v>46</v>
       </c>
       <c r="S187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T187" t="n">
         <v>93</v>
@@ -14306,7 +14306,7 @@
         <v>46</v>
       </c>
       <c r="S188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T188" t="n">
         <v>93</v>
@@ -14368,7 +14368,7 @@
         <v>59</v>
       </c>
       <c r="S189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T189" t="n">
         <v>111</v>
@@ -14430,7 +14430,7 @@
         <v>53</v>
       </c>
       <c r="S190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T190" t="n">
         <v>96</v>
@@ -14492,7 +14492,7 @@
         <v>53</v>
       </c>
       <c r="S191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T191" t="n">
         <v>96</v>
@@ -14554,7 +14554,7 @@
         <v>53</v>
       </c>
       <c r="S192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T192" t="n">
         <v>96</v>
@@ -14616,7 +14616,7 @@
         <v>53</v>
       </c>
       <c r="S193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T193" t="n">
         <v>96</v>
@@ -14678,7 +14678,7 @@
         <v>18</v>
       </c>
       <c r="S194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T194" t="n">
         <v>81</v>
@@ -14740,7 +14740,7 @@
         <v>18</v>
       </c>
       <c r="S195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T195" t="n">
         <v>81</v>
@@ -14802,7 +14802,7 @@
         <v>18</v>
       </c>
       <c r="S196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T196" t="n">
         <v>81</v>
@@ -14864,7 +14864,7 @@
         <v>6</v>
       </c>
       <c r="S197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T197" t="n">
         <v>76</v>
@@ -15174,7 +15174,7 @@
         <v>45</v>
       </c>
       <c r="S202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T202" t="n">
         <v>83</v>
@@ -15236,7 +15236,7 @@
         <v>45</v>
       </c>
       <c r="S203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T203" t="n">
         <v>83</v>
@@ -15298,7 +15298,7 @@
         <v>45</v>
       </c>
       <c r="S204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T204" t="n">
         <v>83</v>
@@ -15360,7 +15360,7 @@
         <v>45</v>
       </c>
       <c r="S205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T205" t="n">
         <v>83</v>
@@ -15422,7 +15422,7 @@
         <v>41</v>
       </c>
       <c r="S206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T206" t="n">
         <v>95</v>
@@ -15484,7 +15484,7 @@
         <v>31</v>
       </c>
       <c r="S207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T207" t="n">
         <v>94</v>
@@ -15546,7 +15546,7 @@
         <v>31</v>
       </c>
       <c r="S208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T208" t="n">
         <v>94</v>
@@ -15608,7 +15608,7 @@
         <v>31</v>
       </c>
       <c r="S209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T209" t="n">
         <v>94</v>
@@ -15670,7 +15670,7 @@
         <v>50</v>
       </c>
       <c r="S210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T210" t="n">
         <v>77</v>
@@ -15732,7 +15732,7 @@
         <v>54</v>
       </c>
       <c r="S211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T211" t="n">
         <v>79</v>
@@ -15794,7 +15794,7 @@
         <v>50</v>
       </c>
       <c r="S212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T212" t="n">
         <v>77</v>
@@ -15856,7 +15856,7 @@
         <v>50</v>
       </c>
       <c r="S213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T213" t="n">
         <v>77</v>
@@ -15918,7 +15918,7 @@
         <v>53</v>
       </c>
       <c r="S214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T214" t="n">
         <v>77</v>
@@ -15980,7 +15980,7 @@
         <v>53</v>
       </c>
       <c r="S215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T215" t="n">
         <v>77</v>
@@ -16042,7 +16042,7 @@
         <v>53</v>
       </c>
       <c r="S216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T216" t="n">
         <v>77</v>
@@ -16104,7 +16104,7 @@
         <v>62</v>
       </c>
       <c r="S217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T217" t="n">
         <v>84</v>
@@ -16166,7 +16166,7 @@
         <v>40</v>
       </c>
       <c r="S218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T218" t="n">
         <v>110</v>
@@ -16228,7 +16228,7 @@
         <v>40</v>
       </c>
       <c r="S219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T219" t="n">
         <v>110</v>
@@ -16290,7 +16290,7 @@
         <v>40</v>
       </c>
       <c r="S220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T220" t="n">
         <v>111</v>
@@ -16352,7 +16352,7 @@
         <v>40</v>
       </c>
       <c r="S221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T221" t="n">
         <v>110</v>
@@ -16414,7 +16414,7 @@
         <v>19</v>
       </c>
       <c r="S222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T222" t="n">
         <v>71</v>
@@ -16476,7 +16476,7 @@
         <v>19</v>
       </c>
       <c r="S223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T223" t="n">
         <v>71</v>
@@ -16538,7 +16538,7 @@
         <v>19</v>
       </c>
       <c r="S224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T224" t="n">
         <v>71</v>
@@ -16600,7 +16600,7 @@
         <v>19</v>
       </c>
       <c r="S225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T225" t="n">
         <v>71</v>
@@ -16662,7 +16662,7 @@
         <v>56</v>
       </c>
       <c r="S226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T226" t="n">
         <v>112</v>
@@ -16724,7 +16724,7 @@
         <v>53</v>
       </c>
       <c r="S227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T227" t="n">
         <v>109</v>
@@ -16786,7 +16786,7 @@
         <v>53</v>
       </c>
       <c r="S228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T228" t="n">
         <v>109</v>
@@ -16848,7 +16848,7 @@
         <v>56</v>
       </c>
       <c r="S229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T229" t="n">
         <v>112</v>
@@ -16910,7 +16910,7 @@
         <v>53</v>
       </c>
       <c r="S230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T230" t="n">
         <v>113</v>
@@ -16972,7 +16972,7 @@
         <v>53</v>
       </c>
       <c r="S231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T231" t="n">
         <v>113</v>
@@ -17034,7 +17034,7 @@
         <v>53</v>
       </c>
       <c r="S232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T232" t="n">
         <v>113</v>
@@ -17096,7 +17096,7 @@
         <v>53</v>
       </c>
       <c r="S233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T233" t="n">
         <v>113</v>
@@ -17158,7 +17158,7 @@
         <v>38</v>
       </c>
       <c r="S234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T234" t="n">
         <v>87</v>
@@ -17220,7 +17220,7 @@
         <v>24</v>
       </c>
       <c r="S235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T235" t="n">
         <v>84</v>
@@ -17282,7 +17282,7 @@
         <v>24</v>
       </c>
       <c r="S236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T236" t="n">
         <v>84</v>
@@ -17344,7 +17344,7 @@
         <v>24</v>
       </c>
       <c r="S237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T237" t="n">
         <v>84</v>
@@ -17406,7 +17406,7 @@
         <v>62</v>
       </c>
       <c r="S238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T238" t="n">
         <v>105</v>
@@ -17468,7 +17468,7 @@
         <v>62</v>
       </c>
       <c r="S239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T239" t="n">
         <v>105</v>
@@ -17530,7 +17530,7 @@
         <v>62</v>
       </c>
       <c r="S240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T240" t="n">
         <v>105</v>
@@ -17592,7 +17592,7 @@
         <v>62</v>
       </c>
       <c r="S241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T241" t="n">
         <v>105</v>
@@ -17654,7 +17654,7 @@
         <v>46</v>
       </c>
       <c r="S242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T242" t="n">
         <v>85</v>
@@ -17716,7 +17716,7 @@
         <v>46</v>
       </c>
       <c r="S243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T243" t="n">
         <v>85</v>
@@ -17778,7 +17778,7 @@
         <v>46</v>
       </c>
       <c r="S244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T244" t="n">
         <v>85</v>
@@ -17840,7 +17840,7 @@
         <v>46</v>
       </c>
       <c r="S245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T245" t="n">
         <v>85</v>
@@ -17902,7 +17902,7 @@
         <v>55</v>
       </c>
       <c r="S246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T246" t="n">
         <v>95</v>
@@ -17964,7 +17964,7 @@
         <v>45</v>
       </c>
       <c r="S247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T247" t="n">
         <v>101</v>
@@ -18026,7 +18026,7 @@
         <v>54</v>
       </c>
       <c r="S248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T248" t="n">
         <v>100.85822</v>
@@ -18088,7 +18088,7 @@
         <v>54</v>
       </c>
       <c r="S249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T249" t="n">
         <v>100.85822</v>
@@ -18150,7 +18150,7 @@
         <v>56</v>
       </c>
       <c r="S250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T250" t="n">
         <v>94</v>
@@ -18212,7 +18212,7 @@
         <v>56</v>
       </c>
       <c r="S251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T251" t="n">
         <v>94</v>
@@ -18274,7 +18274,7 @@
         <v>56</v>
       </c>
       <c r="S252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T252" t="n">
         <v>99</v>
@@ -18336,7 +18336,7 @@
         <v>53</v>
       </c>
       <c r="S253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T253" t="n">
         <v>99</v>
@@ -18398,7 +18398,7 @@
         <v>34</v>
       </c>
       <c r="S254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T254" t="n">
         <v>84</v>
@@ -18460,7 +18460,7 @@
         <v>34</v>
       </c>
       <c r="S255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T255" t="n">
         <v>84</v>
@@ -18522,7 +18522,7 @@
         <v>34</v>
       </c>
       <c r="S256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T256" t="n">
         <v>84</v>
@@ -18584,7 +18584,7 @@
         <v>34</v>
       </c>
       <c r="S257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T257" t="n">
         <v>84</v>
@@ -18646,7 +18646,7 @@
         <v>11</v>
       </c>
       <c r="S258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T258" t="n">
         <v>83</v>
@@ -18708,7 +18708,7 @@
         <v>11</v>
       </c>
       <c r="S259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T259" t="n">
         <v>83</v>
@@ -18770,7 +18770,7 @@
         <v>14</v>
       </c>
       <c r="S260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T260" t="n">
         <v>83</v>
@@ -18832,7 +18832,7 @@
         <v>14</v>
       </c>
       <c r="S261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T261" t="n">
         <v>83</v>
@@ -18894,7 +18894,7 @@
         <v>33</v>
       </c>
       <c r="S262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T262" t="n">
         <v>81</v>
@@ -18956,7 +18956,7 @@
         <v>33</v>
       </c>
       <c r="S263" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T263" t="n">
         <v>81</v>
@@ -19018,7 +19018,7 @@
         <v>33</v>
       </c>
       <c r="S264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T264" t="n">
         <v>81</v>
@@ -19080,7 +19080,7 @@
         <v>33</v>
       </c>
       <c r="S265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T265" t="n">
         <v>81</v>
@@ -19142,7 +19142,7 @@
         <v>66</v>
       </c>
       <c r="S266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T266" t="n">
         <v>54</v>
@@ -19204,7 +19204,7 @@
         <v>66</v>
       </c>
       <c r="S267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T267" t="n">
         <v>54</v>
@@ -19266,7 +19266,7 @@
         <v>66</v>
       </c>
       <c r="S268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T268" t="n">
         <v>54</v>
@@ -19328,7 +19328,7 @@
         <v>66</v>
       </c>
       <c r="S269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T269" t="n">
         <v>54</v>
@@ -19390,7 +19390,7 @@
         <v>59</v>
       </c>
       <c r="S270" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T270" t="n">
         <v>104</v>
@@ -19452,7 +19452,7 @@
         <v>55</v>
       </c>
       <c r="S271" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T271" t="n">
         <v>141</v>
@@ -19514,7 +19514,7 @@
         <v>59</v>
       </c>
       <c r="S272" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T272" t="n">
         <v>104</v>
@@ -19576,7 +19576,7 @@
         <v>59</v>
       </c>
       <c r="S273" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T273" t="n">
         <v>104</v>
@@ -19638,7 +19638,7 @@
         <v>23</v>
       </c>
       <c r="S274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T274" t="n">
         <v>110</v>
@@ -19700,7 +19700,7 @@
         <v>23</v>
       </c>
       <c r="S275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T275" t="n">
         <v>110</v>
@@ -19762,7 +19762,7 @@
         <v>23</v>
       </c>
       <c r="S276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T276" t="n">
         <v>110</v>
@@ -19824,7 +19824,7 @@
         <v>20</v>
       </c>
       <c r="S277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T277" t="n">
         <v>105</v>
@@ -19886,7 +19886,7 @@
         <v>13</v>
       </c>
       <c r="S278" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T278" t="n">
         <v>96</v>
@@ -19948,7 +19948,7 @@
         <v>13</v>
       </c>
       <c r="S279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T279" t="n">
         <v>96</v>
@@ -20010,7 +20010,7 @@
         <v>13</v>
       </c>
       <c r="S280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T280" t="n">
         <v>96</v>
@@ -20072,7 +20072,7 @@
         <v>13</v>
       </c>
       <c r="S281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T281" t="n">
         <v>96</v>
@@ -20134,7 +20134,7 @@
         <v>37</v>
       </c>
       <c r="S282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T282" t="n">
         <v>81</v>
@@ -20196,7 +20196,7 @@
         <v>43</v>
       </c>
       <c r="S283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T283" t="n">
         <v>90</v>
@@ -20258,7 +20258,7 @@
         <v>33</v>
       </c>
       <c r="S284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T284" t="n">
         <v>90</v>
@@ -20320,7 +20320,7 @@
         <v>34</v>
       </c>
       <c r="S285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T285" t="n">
         <v>86</v>
@@ -20382,7 +20382,7 @@
         <v>17</v>
       </c>
       <c r="S286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T286" t="n">
         <v>77</v>
@@ -20444,7 +20444,7 @@
         <v>15</v>
       </c>
       <c r="S287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T287" t="n">
         <v>74</v>
@@ -20506,7 +20506,7 @@
         <v>17</v>
       </c>
       <c r="S288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T288" t="n">
         <v>77</v>
@@ -20568,7 +20568,7 @@
         <v>20</v>
       </c>
       <c r="S289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T289" t="n">
         <v>81</v>
@@ -20630,7 +20630,7 @@
         <v>14</v>
       </c>
       <c r="S290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T290" t="n">
         <v>84</v>
@@ -20692,7 +20692,7 @@
         <v>14</v>
       </c>
       <c r="S291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T291" t="n">
         <v>84</v>
@@ -20754,7 +20754,7 @@
         <v>14</v>
       </c>
       <c r="S292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T292" t="n">
         <v>84</v>
@@ -20816,7 +20816,7 @@
         <v>14</v>
       </c>
       <c r="S293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T293" t="n">
         <v>85</v>
@@ -20878,7 +20878,7 @@
         <v>26</v>
       </c>
       <c r="S294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T294" t="n">
         <v>78</v>
@@ -20940,7 +20940,7 @@
         <v>26</v>
       </c>
       <c r="S295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T295" t="n">
         <v>78</v>
@@ -21002,7 +21002,7 @@
         <v>26</v>
       </c>
       <c r="S296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T296" t="n">
         <v>78</v>
@@ -21064,7 +21064,7 @@
         <v>16</v>
       </c>
       <c r="S297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T297" t="n">
         <v>81</v>
@@ -21126,7 +21126,7 @@
         <v>19</v>
       </c>
       <c r="S298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T298" t="n">
         <v>83</v>
@@ -21188,7 +21188,7 @@
         <v>14</v>
       </c>
       <c r="S299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T299" t="n">
         <v>79</v>
@@ -21250,7 +21250,7 @@
         <v>19</v>
       </c>
       <c r="S300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T300" t="n">
         <v>83</v>
@@ -21312,7 +21312,7 @@
         <v>19</v>
       </c>
       <c r="S301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T301" t="n">
         <v>83</v>
@@ -21374,7 +21374,7 @@
         <v>40</v>
       </c>
       <c r="S302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T302" t="n">
         <v>89</v>
@@ -21436,7 +21436,7 @@
         <v>40</v>
       </c>
       <c r="S303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T303" t="n">
         <v>89</v>
@@ -21498,7 +21498,7 @@
         <v>40</v>
       </c>
       <c r="S304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T304" t="n">
         <v>89</v>
@@ -21560,7 +21560,7 @@
         <v>40</v>
       </c>
       <c r="S305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T305" t="n">
         <v>89</v>
@@ -21622,7 +21622,7 @@
         <v>51</v>
       </c>
       <c r="S306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T306" t="n">
         <v>81</v>
@@ -21684,7 +21684,7 @@
         <v>33</v>
       </c>
       <c r="S307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T307" t="n">
         <v>81</v>
@@ -21746,7 +21746,7 @@
         <v>51</v>
       </c>
       <c r="S308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T308" t="n">
         <v>81</v>
@@ -21808,7 +21808,7 @@
         <v>51</v>
       </c>
       <c r="S309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T309" t="n">
         <v>81</v>
@@ -21870,7 +21870,7 @@
         <v>61</v>
       </c>
       <c r="S310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T310" t="n">
         <v>92</v>
@@ -21932,7 +21932,7 @@
         <v>61</v>
       </c>
       <c r="S311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T311" t="n">
         <v>92</v>
@@ -21994,7 +21994,7 @@
         <v>61</v>
       </c>
       <c r="S312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T312" t="n">
         <v>92</v>
@@ -22056,7 +22056,7 @@
         <v>61</v>
       </c>
       <c r="S313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T313" t="n">
         <v>92</v>
@@ -22118,7 +22118,7 @@
         <v>62</v>
       </c>
       <c r="S314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T314" t="n">
         <v>75</v>
@@ -22180,7 +22180,7 @@
         <v>62</v>
       </c>
       <c r="S315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T315" t="n">
         <v>75</v>
@@ -22242,7 +22242,7 @@
         <v>62</v>
       </c>
       <c r="S316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T316" t="n">
         <v>75</v>
@@ -22304,7 +22304,7 @@
         <v>63</v>
       </c>
       <c r="S317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T317" t="n">
         <v>67.15802</v>
@@ -22366,7 +22366,7 @@
         <v>52</v>
       </c>
       <c r="S318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T318" t="n">
         <v>112</v>
@@ -22428,7 +22428,7 @@
         <v>52</v>
       </c>
       <c r="S319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T319" t="n">
         <v>112</v>
@@ -22490,7 +22490,7 @@
         <v>52</v>
       </c>
       <c r="S320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T320" t="n">
         <v>112</v>
@@ -22552,7 +22552,7 @@
         <v>28</v>
       </c>
       <c r="S321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T321" t="n">
         <v>93</v>
@@ -22614,7 +22614,7 @@
         <v>58</v>
       </c>
       <c r="S322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T322" t="n">
         <v>114</v>
@@ -22676,7 +22676,7 @@
         <v>58</v>
       </c>
       <c r="S323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T323" t="n">
         <v>114</v>
@@ -22738,7 +22738,7 @@
         <v>58</v>
       </c>
       <c r="S324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T324" t="n">
         <v>114</v>
@@ -22800,7 +22800,7 @@
         <v>58</v>
       </c>
       <c r="S325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T325" t="n">
         <v>114</v>
@@ -22862,7 +22862,7 @@
         <v>29</v>
       </c>
       <c r="S326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T326" t="n">
         <v>88</v>
@@ -22924,7 +22924,7 @@
         <v>29</v>
       </c>
       <c r="S327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T327" t="n">
         <v>88</v>
@@ -22986,7 +22986,7 @@
         <v>29</v>
       </c>
       <c r="S328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T328" t="n">
         <v>88</v>
@@ -23048,7 +23048,7 @@
         <v>31</v>
       </c>
       <c r="S329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T329" t="n">
         <v>91</v>
@@ -23110,7 +23110,7 @@
         <v>56</v>
       </c>
       <c r="S330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T330" t="n">
         <v>105</v>
@@ -23172,7 +23172,7 @@
         <v>51</v>
       </c>
       <c r="S331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T331" t="n">
         <v>99</v>
@@ -23234,7 +23234,7 @@
         <v>51</v>
       </c>
       <c r="S332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T332" t="n">
         <v>99</v>
@@ -23296,7 +23296,7 @@
         <v>56</v>
       </c>
       <c r="S333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T333" t="n">
         <v>105</v>
@@ -23358,7 +23358,7 @@
         <v>27</v>
       </c>
       <c r="S334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T334" t="n">
         <v>79</v>
@@ -23420,7 +23420,7 @@
         <v>27</v>
       </c>
       <c r="S335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T335" t="n">
         <v>79</v>
@@ -23482,7 +23482,7 @@
         <v>27</v>
       </c>
       <c r="S336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T336" t="n">
         <v>79</v>
@@ -23544,7 +23544,7 @@
         <v>27</v>
       </c>
       <c r="S337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T337" t="n">
         <v>79</v>
@@ -23606,7 +23606,7 @@
         <v>41</v>
       </c>
       <c r="S338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T338" t="n">
         <v>82</v>
@@ -23668,7 +23668,7 @@
         <v>41</v>
       </c>
       <c r="S339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T339" t="n">
         <v>82</v>
@@ -23730,7 +23730,7 @@
         <v>41</v>
       </c>
       <c r="S340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T340" t="n">
         <v>82</v>
@@ -23792,7 +23792,7 @@
         <v>37</v>
       </c>
       <c r="S341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T341" t="n">
         <v>80</v>
@@ -23854,7 +23854,7 @@
         <v>53</v>
       </c>
       <c r="S342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T342" t="n">
         <v>101.49727</v>
@@ -23916,7 +23916,7 @@
         <v>53</v>
       </c>
       <c r="S343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T343" t="n">
         <v>101.44521</v>
@@ -23978,7 +23978,7 @@
         <v>53</v>
       </c>
       <c r="S344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T344" t="n">
         <v>101.44521</v>
@@ -24040,7 +24040,7 @@
         <v>53</v>
       </c>
       <c r="S345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T345" t="n">
         <v>101.49727</v>
